--- a/data/extracted/Congressional Election Results by State (2018 - 116th).xlsx
+++ b/data/extracted/Congressional Election Results by State (2018 - 116th).xlsx
@@ -1,32 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11221"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/ushouse/data/extracted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{839DD75F-9807-7C4B-910D-9B7093253181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCF5400-7781-8A44-97BB-24F475CC1291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="500" windowWidth="27600" windowHeight="17500" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="500" windowWidth="27600" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Election Results by State" sheetId="2" r:id="rId1"/>
     <sheet name="Uncontested Races" sheetId="6" r:id="rId2"/>
-    <sheet name="Uncontested PIVOT" sheetId="5" r:id="rId3"/>
-    <sheet name="RESULTS" sheetId="7" r:id="rId4"/>
-    <sheet name="UNCONTESTED" sheetId="8" r:id="rId5"/>
+    <sheet name="RESULTS" sheetId="7" r:id="rId3"/>
+    <sheet name="UNCONTESTED" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Election Results by State'!$N$2:$N$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Election Results by State'!$J$2:$J$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Uncontested Races'!$A$2:$J$77</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="163">
   <si>
     <t>State</t>
   </si>
@@ -405,15 +401,6 @@
     <t>Uncontested Votes</t>
   </si>
   <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Sum of REP2</t>
-  </si>
-  <si>
-    <t>Sum of DEM2</t>
-  </si>
-  <si>
     <t>TOT2</t>
   </si>
   <si>
@@ -423,24 +410,6 @@
     <t xml:space="preserve">           Actual Seats</t>
   </si>
   <si>
-    <t>REP3</t>
-  </si>
-  <si>
-    <t>DEM3</t>
-  </si>
-  <si>
-    <t>Contested</t>
-  </si>
-  <si>
-    <t>AVG Votes</t>
-  </si>
-  <si>
-    <t>Uncontested</t>
-  </si>
-  <si>
-    <t>TOT3</t>
-  </si>
-  <si>
     <t>7th</t>
   </si>
   <si>
@@ -562,6 +531,9 @@
   </si>
   <si>
     <t>DISTRICT</t>
+  </si>
+  <si>
+    <t>Should be 1 Dem!</t>
   </si>
 </sst>
 </file>
@@ -623,7 +595,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -633,12 +605,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,18 +634,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -716,26 +676,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -748,7 +688,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -771,35 +711,26 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -810,14 +741,7 @@
     <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -830,14 +754,7 @@
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -848,1517 +765,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alec Ramsay" refreshedDate="43743.412101851849" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="81" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A2:J107" sheet="Uncontested Races"/>
-  </cacheSource>
-  <cacheFields count="10">
-    <cacheField name="State" numFmtId="0">
-      <sharedItems containsBlank="1" count="52">
-        <s v="Alabama"/>
-        <s v="Alaska"/>
-        <s v="Arizona"/>
-        <s v="Arkansas"/>
-        <s v="California"/>
-        <s v="Colorado"/>
-        <s v="Connecticut"/>
-        <s v="Delaware"/>
-        <s v="Florida"/>
-        <s v="Georgia"/>
-        <s v="Hawaiʻi"/>
-        <s v="Idaho"/>
-        <s v="Illinois"/>
-        <s v="Indiana"/>
-        <s v="Iowa"/>
-        <s v="Kansas"/>
-        <s v="Kentucky"/>
-        <s v="Louisiana"/>
-        <s v="Maine"/>
-        <s v="Maryland"/>
-        <s v="Massachusetts"/>
-        <s v="Michigan"/>
-        <s v="Minnesota"/>
-        <s v="Mississippi"/>
-        <s v="Missouri"/>
-        <s v="Montana"/>
-        <s v="Nebraska"/>
-        <s v="Nevada"/>
-        <s v="New Hampshire"/>
-        <s v="New Jersey"/>
-        <s v="New Mexico"/>
-        <s v="New York"/>
-        <s v="North Carolina"/>
-        <s v="North Dakota"/>
-        <s v="Ohio"/>
-        <s v="Oklahoma"/>
-        <s v="Oregon"/>
-        <s v="Pennsylvania"/>
-        <s v="Rhode Island"/>
-        <s v="South Carolina"/>
-        <s v="South Dakota"/>
-        <s v="Tennessee"/>
-        <s v="Texas"/>
-        <s v="Utah"/>
-        <s v="Vermont"/>
-        <s v="Virginia"/>
-        <s v="Washington"/>
-        <s v="West Virginia"/>
-        <s v="Wisconsin"/>
-        <s v="Wyoming"/>
-        <m/>
-        <s v="Total"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="**" numFmtId="0">
-      <sharedItems containsBlank="1" count="51">
-        <s v="AL"/>
-        <s v="AK"/>
-        <s v="AZ"/>
-        <s v="AR"/>
-        <s v="CA"/>
-        <s v="CO"/>
-        <s v="CT"/>
-        <s v="DE"/>
-        <s v="FL"/>
-        <s v="GA"/>
-        <s v="HI"/>
-        <s v="ID"/>
-        <s v="IL"/>
-        <s v="IN"/>
-        <s v="IA"/>
-        <s v="KS"/>
-        <s v="KY"/>
-        <s v="LA"/>
-        <s v="ME"/>
-        <s v="MD"/>
-        <s v="MA"/>
-        <s v="MI"/>
-        <s v="MN"/>
-        <s v="MS"/>
-        <s v="MO"/>
-        <s v="MT"/>
-        <s v="NE"/>
-        <s v="NV"/>
-        <s v="NH"/>
-        <s v="NJ"/>
-        <s v="NM"/>
-        <s v="NY"/>
-        <s v="NC"/>
-        <s v="ND"/>
-        <s v="OH"/>
-        <s v="OK"/>
-        <s v="OR"/>
-        <s v="PA"/>
-        <s v="RI"/>
-        <s v="SC"/>
-        <s v="SD"/>
-        <s v="TN"/>
-        <s v="TX"/>
-        <s v="UT"/>
-        <s v="VT"/>
-        <s v="VA"/>
-        <s v="WA"/>
-        <s v="WV"/>
-        <s v="WI"/>
-        <s v="WY"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="District" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="REP1" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="556838"/>
-    </cacheField>
-    <cacheField name="DEM1" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="6277554"/>
-    </cacheField>
-    <cacheField name="OTH1" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-187901" maxValue="843826"/>
-    </cacheField>
-    <cacheField name="TOT1" numFmtId="3">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="7678218"/>
-    </cacheField>
-    <cacheField name="REP2" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="3"/>
-    </cacheField>
-    <cacheField name="DEM2" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="36"/>
-    </cacheField>
-    <cacheField name="OTH2" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="81">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="7th"/>
-    <n v="0"/>
-    <n v="185010"/>
-    <n v="4153"/>
-    <n v="189163"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <s v="7th"/>
-    <n v="0"/>
-    <n v="113044"/>
-    <n v="19007"/>
-    <n v="132051"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="5th"/>
-    <n v="0"/>
-    <n v="205860"/>
-    <n v="55158"/>
-    <n v="261018"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="6th"/>
-    <n v="0"/>
-    <n v="201939"/>
-    <n v="0"/>
-    <n v="201939"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="8th"/>
-    <n v="170785"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="170785"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="13th"/>
-    <n v="0"/>
-    <n v="260580"/>
-    <n v="34257"/>
-    <n v="294837"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="20th"/>
-    <n v="0"/>
-    <n v="183677"/>
-    <n v="42044"/>
-    <n v="225721"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="27th"/>
-    <n v="0"/>
-    <n v="202636"/>
-    <n v="0"/>
-    <n v="202636"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="34th"/>
-    <n v="0"/>
-    <n v="110195"/>
-    <n v="41711"/>
-    <n v="151906"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="40th"/>
-    <n v="0"/>
-    <n v="93938"/>
-    <n v="27511"/>
-    <n v="121449"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <s v="44th"/>
-    <n v="0"/>
-    <n v="143322"/>
-    <n v="0"/>
-    <n v="143322"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="6"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="7"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="10th"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="14th"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="20th"/>
-    <n v="0"/>
-    <n v="202659"/>
-    <n v="165"/>
-    <n v="202824"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="21st"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <s v="24th"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="9"/>
-    <s v="5th"/>
-    <n v="0"/>
-    <n v="275406"/>
-    <n v="0"/>
-    <n v="275406"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="9"/>
-    <s v="8th"/>
-    <n v="198152"/>
-    <n v="0"/>
-    <n v="564"/>
-    <n v="198716"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="10"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="11"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="12"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="13"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="14"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="15"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="16"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="17"/>
-    <s v="2nd"/>
-    <n v="0"/>
-    <n v="190182"/>
-    <n v="45800"/>
-    <n v="235982"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="18"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <x v="19"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <s v="1st"/>
-    <n v="0"/>
-    <n v="211790"/>
-    <n v="63276"/>
-    <n v="275066"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <s v="4th"/>
-    <n v="0"/>
-    <n v="245289"/>
-    <n v="76838"/>
-    <n v="322127"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <s v="7th"/>
-    <n v="0"/>
-    <n v="216557"/>
-    <n v="32818"/>
-    <n v="249375"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <s v="8th"/>
-    <n v="0"/>
-    <n v="259159"/>
-    <n v="68221"/>
-    <n v="327380"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="21"/>
-    <s v="13th"/>
-    <n v="0"/>
-    <n v="165355"/>
-    <n v="30944"/>
-    <n v="196299"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="22"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <x v="23"/>
-    <s v="2nd"/>
-    <n v="0"/>
-    <n v="158921"/>
-    <n v="62458"/>
-    <n v="221379"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <x v="24"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <x v="25"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <x v="26"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="27"/>
-    <x v="27"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="28"/>
-    <x v="28"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="29"/>
-    <x v="29"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="30"/>
-    <x v="30"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="31"/>
-    <s v="5th"/>
-    <n v="0"/>
-    <n v="160500"/>
-    <n v="25825"/>
-    <n v="186325"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="31"/>
-    <s v="6th"/>
-    <n v="0"/>
-    <n v="104293"/>
-    <n v="45247"/>
-    <n v="149540"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="31"/>
-    <s v="7th"/>
-    <n v="0"/>
-    <n v="134125"/>
-    <n v="30710"/>
-    <n v="164835"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="31"/>
-    <s v="8th"/>
-    <n v="0"/>
-    <n v="170850"/>
-    <n v="33918"/>
-    <n v="204768"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="31"/>
-    <s v="16th"/>
-    <n v="0"/>
-    <n v="172815"/>
-    <n v="35029"/>
-    <n v="207844"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="31"/>
-    <s v="17th"/>
-    <n v="0"/>
-    <n v="159923"/>
-    <n v="56349"/>
-    <n v="216272"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="32"/>
-    <x v="32"/>
-    <s v="3rd"/>
-    <n v="187901"/>
-    <n v="0"/>
-    <n v="-187901"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="33"/>
-    <x v="33"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="34"/>
-    <x v="34"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="35"/>
-    <x v="35"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="36"/>
-    <x v="36"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <x v="37"/>
-    <s v="18th"/>
-    <n v="0"/>
-    <n v="231472"/>
-    <n v="0"/>
-    <n v="231472"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="38"/>
-    <x v="38"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="39"/>
-    <x v="39"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="40"/>
-    <x v="40"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="41"/>
-    <x v="41"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="9th"/>
-    <n v="0"/>
-    <n v="136256"/>
-    <n v="16745"/>
-    <n v="153001"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="20th"/>
-    <n v="0"/>
-    <n v="139038"/>
-    <n v="32925"/>
-    <n v="171963"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="28th"/>
-    <n v="0"/>
-    <n v="117494"/>
-    <n v="21732"/>
-    <n v="139226"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <s v="30th"/>
-    <n v="0"/>
-    <n v="166784"/>
-    <n v="16390"/>
-    <n v="183174"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="43"/>
-    <x v="43"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="44"/>
-    <x v="44"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="45"/>
-    <x v="45"/>
-    <s v="3rd"/>
-    <n v="0"/>
-    <n v="198615"/>
-    <n v="19107"/>
-    <n v="217722"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="46"/>
-    <x v="46"/>
-    <s v="2nd"/>
-    <n v="0"/>
-    <n v="210187"/>
-    <n v="84646"/>
-    <n v="294833"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="46"/>
-    <x v="46"/>
-    <s v="9th"/>
-    <n v="0"/>
-    <n v="240567"/>
-    <n v="0"/>
-    <n v="240567"/>
-    <n v="0"/>
-    <n v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="47"/>
-    <x v="47"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="48"/>
-    <x v="48"/>
-    <s v="2nd"/>
-    <n v="0"/>
-    <n v="309116"/>
-    <n v="8179"/>
-    <n v="317295"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="49"/>
-    <x v="49"/>
-    <s v="n/a"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="50"/>
-    <x v="50"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="51"/>
-    <x v="50"/>
-    <m/>
-    <n v="556838"/>
-    <n v="6277554"/>
-    <n v="843826"/>
-    <n v="7678218"/>
-    <n v="3"/>
-    <n v="36"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="50"/>
-    <x v="50"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="50"/>
-    <x v="50"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="50"/>
-    <x v="50"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="50"/>
-    <x v="50"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A3:E54" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
-  <pivotFields count="10">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="52">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="51">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="14"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="20"/>
-        <item x="19"/>
-        <item x="18"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="24"/>
-        <item x="23"/>
-        <item x="25"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="26"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="27"/>
-        <item x="31"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="45"/>
-        <item x="44"/>
-        <item x="46"/>
-        <item x="48"/>
-        <item x="47"/>
-        <item x="49"/>
-        <item x="50"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" numFmtId="3" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="51">
-    <i>
-      <x/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="12"/>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="13"/>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="14"/>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="15"/>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="19"/>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="21"/>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="24"/>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="25"/>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="27"/>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="28"/>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="29"/>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="30"/>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="31"/>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="32"/>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="33"/>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="34"/>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="41"/>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="42"/>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="45"/>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="46"/>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="48"/>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="49"/>
-      <x v="49"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Uncontested Votes" fld="6" baseField="0" baseItem="0" numFmtId="3"/>
-    <dataField name="Sum of REP2" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Sum of DEM2" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="1">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2624,13 +1030,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2639,44 +1045,33 @@
     <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="12"/>
     <col min="4" max="4" width="10.83203125" style="3"/>
-    <col min="5" max="5" width="10.83203125" style="33"/>
+    <col min="5" max="5" width="10.83203125" style="29"/>
     <col min="6" max="6" width="12.1640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="12" customWidth="1"/>
-    <col min="8" max="9" width="10.83203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="34" customWidth="1"/>
-    <col min="11" max="11" width="5.83203125" style="27" customWidth="1"/>
-    <col min="12" max="14" width="5.83203125" customWidth="1"/>
-    <col min="15" max="15" width="26" style="16" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" style="23" customWidth="1"/>
+    <col min="8" max="10" width="5.83203125" customWidth="1"/>
+    <col min="11" max="11" width="38" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="14"/>
-    </row>
-    <row r="2" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="14"/>
+    </row>
+    <row r="2" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2695,35 +1090,23 @@
       <c r="F2" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="O2" s="14" t="s">
+      <c r="J2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2736,41 +1119,28 @@
       <c r="D3" s="3">
         <v>678687</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="26">
         <f t="shared" ref="E3" si="0">F3-D3-C3</f>
         <v>5471</v>
       </c>
       <c r="F3" s="3">
         <v>1659895</v>
       </c>
-      <c r="G3" s="55">
-        <v>189163</v>
-      </c>
-      <c r="H3" s="56">
-        <v>0</v>
-      </c>
-      <c r="I3" s="56">
-        <v>1</v>
-      </c>
-      <c r="J3" s="34">
-        <f t="shared" ref="J3:J34" si="1">(F3-G3)/(N3-SUM(H3:I3))</f>
-        <v>245122</v>
-      </c>
-      <c r="K3" s="27">
-        <f t="shared" ref="K3:K34" si="2">N3-L3-M3</f>
+      <c r="G3" s="23">
+        <f t="shared" ref="G3:G34" si="1">J3-H3-I3</f>
         <v>6</v>
       </c>
-      <c r="L3" s="3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="11">
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2783,41 +1153,28 @@
       <c r="D4" s="3">
         <v>131199</v>
       </c>
-      <c r="E4" s="30">
-        <f t="shared" ref="E4:E52" si="3">F4-D4-C4</f>
+      <c r="E4" s="26">
+        <f t="shared" ref="E4:E52" si="2">F4-D4-C4</f>
         <v>1188</v>
       </c>
       <c r="F4" s="3">
         <v>282166</v>
       </c>
-      <c r="G4" s="55">
-        <v>0</v>
-      </c>
-      <c r="H4" s="56">
-        <v>0</v>
-      </c>
-      <c r="I4" s="56">
-        <v>0</v>
-      </c>
-      <c r="J4" s="34">
+      <c r="G4" s="23">
         <f t="shared" si="1"/>
-        <v>282166</v>
-      </c>
-      <c r="K4" s="27">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2830,41 +1187,28 @@
       <c r="D5" s="3">
         <v>1179193</v>
       </c>
-      <c r="E5" s="30">
-        <f t="shared" si="3"/>
+      <c r="E5" s="26">
+        <f t="shared" si="2"/>
         <v>22826</v>
       </c>
       <c r="F5" s="3">
         <v>2341270</v>
       </c>
-      <c r="G5" s="55">
-        <v>132051</v>
-      </c>
-      <c r="H5" s="56">
-        <v>0</v>
-      </c>
-      <c r="I5" s="56">
-        <v>1</v>
-      </c>
-      <c r="J5" s="34">
+      <c r="G5" s="23">
         <f t="shared" si="1"/>
-        <v>276152.375</v>
-      </c>
-      <c r="K5" s="27">
-        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L5" s="3">
+      <c r="H5" s="3">
         <v>5</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="11">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2877,41 +1221,28 @@
       <c r="D6" s="3">
         <v>312978</v>
       </c>
-      <c r="E6" s="30">
-        <f t="shared" si="3"/>
+      <c r="E6" s="26">
+        <f t="shared" si="2"/>
         <v>19841</v>
       </c>
       <c r="F6" s="3">
         <v>889158</v>
       </c>
-      <c r="G6" s="55">
-        <v>0</v>
-      </c>
-      <c r="H6" s="56">
-        <v>0</v>
-      </c>
-      <c r="I6" s="56">
-        <v>0</v>
-      </c>
-      <c r="J6" s="34">
+      <c r="G6" s="23">
         <f t="shared" si="1"/>
-        <v>222289.5</v>
-      </c>
-      <c r="K6" s="27">
-        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="11">
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -2924,41 +1255,28 @@
       <c r="D7" s="3">
         <v>8010445</v>
       </c>
-      <c r="E7" s="30">
-        <f t="shared" si="3"/>
+      <c r="E7" s="26">
+        <f t="shared" si="2"/>
         <v>200681</v>
       </c>
       <c r="F7" s="3">
         <v>12184522</v>
       </c>
-      <c r="G7" s="55">
-        <v>1773613</v>
-      </c>
-      <c r="H7" s="56">
-        <v>1</v>
-      </c>
-      <c r="I7" s="56">
-        <v>8</v>
-      </c>
-      <c r="J7" s="34">
+      <c r="G7" s="23">
         <f t="shared" si="1"/>
-        <v>236611.56818181818</v>
-      </c>
-      <c r="K7" s="27">
-        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="L7" s="3">
+      <c r="H7" s="3">
         <v>46</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="11">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2971,41 +1289,28 @@
       <c r="D8" s="3">
         <v>1343211</v>
       </c>
-      <c r="E8" s="30">
-        <f t="shared" si="3"/>
+      <c r="E8" s="26">
+        <f t="shared" si="2"/>
         <v>90924</v>
       </c>
       <c r="F8" s="3">
         <v>2513907</v>
       </c>
-      <c r="G8" s="55">
-        <v>0</v>
-      </c>
-      <c r="H8" s="56">
-        <v>0</v>
-      </c>
-      <c r="I8" s="56">
-        <v>0</v>
-      </c>
-      <c r="J8" s="34">
+      <c r="G8" s="23">
         <f t="shared" si="1"/>
-        <v>359129.57142857142</v>
-      </c>
-      <c r="K8" s="27">
-        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L8" s="3">
+      <c r="H8" s="3">
         <v>4</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="11">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -3018,41 +1323,28 @@
       <c r="D9" s="3">
         <v>808652</v>
       </c>
-      <c r="E9" s="30">
-        <f t="shared" si="3"/>
+      <c r="E9" s="26">
+        <f t="shared" si="2"/>
         <v>58661</v>
       </c>
       <c r="F9" s="3">
         <v>1379808</v>
       </c>
-      <c r="G9" s="55">
-        <v>0</v>
-      </c>
-      <c r="H9" s="56">
-        <v>0</v>
-      </c>
-      <c r="I9" s="56">
-        <v>0</v>
-      </c>
-      <c r="J9" s="34">
+      <c r="G9" s="23">
         <f t="shared" si="1"/>
-        <v>275961.59999999998</v>
-      </c>
-      <c r="K9" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
         <v>5</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9" s="11">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -3065,41 +1357,28 @@
       <c r="D10" s="3">
         <v>227353</v>
       </c>
-      <c r="E10" s="30">
-        <f t="shared" si="3"/>
+      <c r="E10" s="26">
+        <f t="shared" si="2"/>
         <v>1077</v>
       </c>
       <c r="F10" s="3">
         <v>353814</v>
       </c>
-      <c r="G10" s="55">
-        <v>0</v>
-      </c>
-      <c r="H10" s="56">
-        <v>0</v>
-      </c>
-      <c r="I10" s="56">
-        <v>0</v>
-      </c>
-      <c r="J10" s="34">
+      <c r="G10" s="23">
         <f t="shared" si="1"/>
-        <v>353814</v>
-      </c>
-      <c r="K10" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -3112,47 +1391,34 @@
       <c r="D11" s="3">
         <v>3307228</v>
       </c>
-      <c r="E11" s="30">
-        <f t="shared" si="3"/>
+      <c r="E11" s="26">
+        <f t="shared" si="2"/>
         <v>38831</v>
       </c>
       <c r="F11" s="3">
         <v>7021476</v>
       </c>
-      <c r="G11" s="55">
-        <v>202824</v>
-      </c>
-      <c r="H11" s="56">
-        <v>0</v>
-      </c>
-      <c r="I11" s="56">
-        <v>5</v>
-      </c>
-      <c r="J11" s="34">
+      <c r="G11" s="23">
         <f t="shared" si="1"/>
-        <v>309938.72727272729</v>
-      </c>
-      <c r="K11" s="27">
-        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="L11" s="3">
+      <c r="H11" s="3">
         <v>13</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11" s="11">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
         <v>27</v>
       </c>
-      <c r="O11" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="K11" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="L11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -3165,41 +1431,28 @@
       <c r="D12" s="3">
         <v>1814469</v>
       </c>
-      <c r="E12" s="30">
-        <f t="shared" si="3"/>
+      <c r="E12" s="26">
+        <f t="shared" si="2"/>
         <v>683</v>
       </c>
       <c r="F12" s="3">
         <v>3802343</v>
       </c>
-      <c r="G12" s="55">
-        <v>474122</v>
-      </c>
-      <c r="H12" s="56">
-        <v>1</v>
-      </c>
-      <c r="I12" s="56">
-        <v>1</v>
-      </c>
-      <c r="J12" s="34">
+      <c r="G12" s="23">
         <f t="shared" si="1"/>
-        <v>277351.75</v>
-      </c>
-      <c r="K12" s="27">
-        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="L12" s="3">
+      <c r="H12" s="3">
         <v>5</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12" s="11">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -3212,41 +1465,28 @@
       <c r="D13" s="3">
         <v>287921</v>
       </c>
-      <c r="E13" s="30">
-        <f t="shared" si="3"/>
+      <c r="E13" s="26">
+        <f t="shared" si="2"/>
         <v>23388</v>
       </c>
       <c r="F13" s="3">
         <v>398657</v>
       </c>
-      <c r="G13" s="55">
-        <v>0</v>
-      </c>
-      <c r="H13" s="56">
-        <v>0</v>
-      </c>
-      <c r="I13" s="56">
-        <v>0</v>
-      </c>
-      <c r="J13" s="34">
+      <c r="G13" s="23">
         <f t="shared" si="1"/>
-        <v>199328.5</v>
-      </c>
-      <c r="K13" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
         <v>2</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13" s="11">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -3259,41 +1499,28 @@
       <c r="D14" s="3">
         <v>207303</v>
       </c>
-      <c r="E14" s="30">
-        <f t="shared" si="3"/>
+      <c r="E14" s="26">
+        <f t="shared" si="2"/>
         <v>20428</v>
       </c>
       <c r="F14" s="3">
         <v>595724</v>
       </c>
-      <c r="G14" s="55">
-        <v>0</v>
-      </c>
-      <c r="H14" s="56">
-        <v>0</v>
-      </c>
-      <c r="I14" s="56">
-        <v>0</v>
-      </c>
-      <c r="J14" s="34">
+      <c r="G14" s="23">
         <f t="shared" si="1"/>
-        <v>297862</v>
-      </c>
-      <c r="K14" s="27">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14" s="11">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -3306,41 +1533,28 @@
       <c r="D15" s="3">
         <v>2757540</v>
       </c>
-      <c r="E15" s="30">
-        <f t="shared" si="3"/>
+      <c r="E15" s="26">
+        <f t="shared" si="2"/>
         <v>27715</v>
       </c>
       <c r="F15" s="3">
         <v>4539704</v>
       </c>
-      <c r="G15" s="55">
-        <v>0</v>
-      </c>
-      <c r="H15" s="56">
-        <v>0</v>
-      </c>
-      <c r="I15" s="56">
-        <v>0</v>
-      </c>
-      <c r="J15" s="34">
+      <c r="G15" s="23">
         <f t="shared" si="1"/>
-        <v>252205.77777777778</v>
-      </c>
-      <c r="K15" s="27">
-        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L15" s="3">
+      <c r="H15" s="3">
         <v>13</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15" s="11">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -3353,41 +1567,28 @@
       <c r="D16" s="3">
         <v>1000104</v>
       </c>
-      <c r="E16" s="30">
-        <f t="shared" si="3"/>
+      <c r="E16" s="26">
+        <f t="shared" si="2"/>
         <v>8067</v>
       </c>
       <c r="F16" s="3">
         <v>2256149</v>
       </c>
-      <c r="G16" s="55">
-        <v>0</v>
-      </c>
-      <c r="H16" s="56">
-        <v>0</v>
-      </c>
-      <c r="I16" s="56">
-        <v>0</v>
-      </c>
-      <c r="J16" s="34">
+      <c r="G16" s="23">
         <f t="shared" si="1"/>
-        <v>250683.22222222222</v>
-      </c>
-      <c r="K16" s="27">
-        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="L16" s="3">
+      <c r="H16" s="3">
         <v>2</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16" s="11">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -3400,41 +1601,28 @@
       <c r="D17" s="3">
         <v>664676</v>
       </c>
-      <c r="E17" s="30">
-        <f t="shared" si="3"/>
+      <c r="E17" s="26">
+        <f t="shared" si="2"/>
         <v>39428</v>
       </c>
       <c r="F17" s="3">
         <v>1316442</v>
       </c>
-      <c r="G17" s="55">
-        <v>0</v>
-      </c>
-      <c r="H17" s="56">
-        <v>0</v>
-      </c>
-      <c r="I17" s="56">
-        <v>0</v>
-      </c>
-      <c r="J17" s="34">
+      <c r="G17" s="23">
         <f t="shared" si="1"/>
-        <v>329110.5</v>
-      </c>
-      <c r="K17" s="27">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
         <v>3</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17" s="11">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -3447,41 +1635,28 @@
       <c r="D18" s="3">
         <v>464380</v>
       </c>
-      <c r="E18" s="30">
-        <f t="shared" si="3"/>
+      <c r="E18" s="26">
+        <f t="shared" si="2"/>
         <v>22752</v>
       </c>
       <c r="F18" s="3">
         <v>1050322</v>
       </c>
-      <c r="G18" s="55">
-        <v>0</v>
-      </c>
-      <c r="H18" s="56">
-        <v>0</v>
-      </c>
-      <c r="I18" s="56">
-        <v>0</v>
-      </c>
-      <c r="J18" s="34">
+      <c r="G18" s="23">
         <f t="shared" si="1"/>
-        <v>262580.5</v>
-      </c>
-      <c r="K18" s="27">
-        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L18" s="3">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18" s="11">
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -3494,41 +1669,28 @@
       <c r="D19" s="3">
         <v>612977</v>
       </c>
-      <c r="E19" s="30">
-        <f t="shared" si="3"/>
+      <c r="E19" s="26">
+        <f t="shared" si="2"/>
         <v>21517</v>
       </c>
       <c r="F19" s="3">
         <v>1569798</v>
       </c>
-      <c r="G19" s="55">
-        <v>0</v>
-      </c>
-      <c r="H19" s="56">
-        <v>0</v>
-      </c>
-      <c r="I19" s="56">
-        <v>0</v>
-      </c>
-      <c r="J19" s="34">
+      <c r="G19" s="23">
         <f t="shared" si="1"/>
-        <v>261633</v>
-      </c>
-      <c r="K19" s="27">
-        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L19" s="3">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19" s="11">
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -3541,41 +1703,28 @@
       <c r="D20" s="3">
         <v>553184</v>
       </c>
-      <c r="E20" s="30">
-        <f t="shared" si="3"/>
+      <c r="E20" s="26">
+        <f t="shared" si="2"/>
         <v>71694</v>
       </c>
       <c r="F20" s="3">
         <v>1460593</v>
       </c>
-      <c r="G20" s="55">
-        <v>235982</v>
-      </c>
-      <c r="H20" s="56">
-        <v>0</v>
-      </c>
-      <c r="I20" s="56">
-        <v>1</v>
-      </c>
-      <c r="J20" s="34">
+      <c r="G20" s="23">
         <f t="shared" si="1"/>
-        <v>244922.2</v>
-      </c>
-      <c r="K20" s="27">
-        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L20" s="3">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20" s="11">
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -3588,41 +1737,28 @@
       <c r="D21" s="3">
         <v>343635</v>
       </c>
-      <c r="E21" s="30">
-        <f t="shared" si="3"/>
+      <c r="E21" s="26">
+        <f t="shared" si="2"/>
         <v>37580</v>
       </c>
       <c r="F21" s="3">
         <v>631334</v>
       </c>
-      <c r="G21" s="55">
-        <v>0</v>
-      </c>
-      <c r="H21" s="56">
-        <v>0</v>
-      </c>
-      <c r="I21" s="56">
-        <v>0</v>
-      </c>
-      <c r="J21" s="34">
+      <c r="G21" s="23">
         <f t="shared" si="1"/>
-        <v>315667</v>
-      </c>
-      <c r="K21" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>2</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21" s="11">
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -3635,41 +1771,28 @@
       <c r="D22" s="3">
         <v>1493047</v>
       </c>
-      <c r="E22" s="30">
-        <f t="shared" si="3"/>
+      <c r="E22" s="26">
+        <f t="shared" si="2"/>
         <v>55331</v>
       </c>
       <c r="F22" s="3">
         <v>2286284</v>
       </c>
-      <c r="G22" s="55">
-        <v>0</v>
-      </c>
-      <c r="H22" s="56">
-        <v>0</v>
-      </c>
-      <c r="I22" s="56">
-        <v>0</v>
-      </c>
-      <c r="J22" s="34">
+      <c r="G22" s="23">
         <f t="shared" si="1"/>
-        <v>285785.5</v>
-      </c>
-      <c r="K22" s="27">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
         <v>7</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22" s="11">
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -3682,41 +1805,28 @@
       <c r="D23" s="3">
         <v>1943595</v>
       </c>
-      <c r="E23" s="30">
-        <f t="shared" si="3"/>
+      <c r="E23" s="26">
+        <f t="shared" si="2"/>
         <v>311117</v>
       </c>
       <c r="F23" s="3">
         <v>2752665</v>
       </c>
-      <c r="G23" s="55">
-        <v>1173948</v>
-      </c>
-      <c r="H23" s="56">
-        <v>0</v>
-      </c>
-      <c r="I23" s="56">
-        <v>4</v>
-      </c>
-      <c r="J23" s="34">
+      <c r="G23" s="23">
         <f t="shared" si="1"/>
-        <v>315743.40000000002</v>
-      </c>
-      <c r="K23" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>9</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23" s="11">
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -3729,41 +1839,31 @@
       <c r="D24" s="3">
         <v>2175003</v>
       </c>
-      <c r="E24" s="30">
-        <f t="shared" si="3"/>
+      <c r="E24" s="26">
+        <f t="shared" si="2"/>
         <v>126241</v>
       </c>
       <c r="F24" s="3">
         <v>4154703</v>
       </c>
-      <c r="G24" s="55">
-        <v>196299</v>
-      </c>
-      <c r="H24" s="56">
-        <v>0</v>
-      </c>
-      <c r="I24" s="56">
-        <v>0</v>
-      </c>
-      <c r="J24" s="34">
+      <c r="G24" s="23">
         <f t="shared" si="1"/>
-        <v>282743.14285714284</v>
-      </c>
-      <c r="K24" s="27">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L24" s="3">
+      <c r="H24" s="3">
         <v>7</v>
       </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="N24" s="11">
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" s="11">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K24" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -3777,41 +1877,28 @@
         <f>363537+1057232</f>
         <v>1420769</v>
       </c>
-      <c r="E25" s="30">
-        <f t="shared" si="3"/>
+      <c r="E25" s="26">
+        <f t="shared" si="2"/>
         <v>30694</v>
       </c>
       <c r="F25" s="3">
         <v>2576996</v>
       </c>
-      <c r="G25" s="55">
-        <v>0</v>
-      </c>
-      <c r="H25" s="56">
-        <v>0</v>
-      </c>
-      <c r="I25" s="56">
-        <v>0</v>
-      </c>
-      <c r="J25" s="34">
+      <c r="G25" s="23">
         <f t="shared" si="1"/>
-        <v>322124.5</v>
-      </c>
-      <c r="K25" s="27">
-        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L25" s="3">
+      <c r="H25" s="3">
         <v>5</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25" s="11">
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -3824,41 +1911,28 @@
       <c r="D26" s="3">
         <v>398770</v>
       </c>
-      <c r="E26" s="30">
-        <f t="shared" si="3"/>
+      <c r="E26" s="26">
+        <f t="shared" si="2"/>
         <v>68971</v>
       </c>
       <c r="F26" s="3">
         <v>938903</v>
       </c>
-      <c r="G26" s="55">
-        <v>221379</v>
-      </c>
-      <c r="H26" s="56">
-        <v>0</v>
-      </c>
-      <c r="I26" s="56">
-        <v>1</v>
-      </c>
-      <c r="J26" s="34">
+      <c r="G26" s="23">
         <f t="shared" si="1"/>
-        <v>239174.66666666666</v>
-      </c>
-      <c r="K26" s="27">
-        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L26" s="3">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26" s="11">
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -3871,41 +1945,28 @@
       <c r="D27" s="3">
         <v>1027969</v>
       </c>
-      <c r="E27" s="30">
-        <f t="shared" si="3"/>
+      <c r="E27" s="26">
+        <f t="shared" si="2"/>
         <v>59469</v>
       </c>
       <c r="F27" s="3">
         <v>2418413</v>
       </c>
-      <c r="G27" s="55">
-        <v>0</v>
-      </c>
-      <c r="H27" s="56">
-        <v>0</v>
-      </c>
-      <c r="I27" s="56">
-        <v>0</v>
-      </c>
-      <c r="J27" s="34">
+      <c r="G27" s="23">
         <f t="shared" si="1"/>
-        <v>302301.625</v>
-      </c>
-      <c r="K27" s="27">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="L27" s="3">
+      <c r="H27" s="3">
         <v>2</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27" s="11">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -3918,41 +1979,28 @@
       <c r="D28" s="3">
         <v>233284</v>
       </c>
-      <c r="E28" s="30">
-        <f t="shared" si="3"/>
+      <c r="E28" s="26">
+        <f t="shared" si="2"/>
         <v>14476</v>
       </c>
       <c r="F28" s="3">
         <v>504421</v>
       </c>
-      <c r="G28" s="55">
-        <v>0</v>
-      </c>
-      <c r="H28" s="56">
-        <v>0</v>
-      </c>
-      <c r="I28" s="56">
-        <v>0</v>
-      </c>
-      <c r="J28" s="34">
+      <c r="G28" s="23">
         <f t="shared" si="1"/>
-        <v>504421</v>
-      </c>
-      <c r="K28" s="27">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L28" s="3">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -3965,41 +2013,28 @@
       <c r="D29" s="3">
         <v>264493</v>
       </c>
-      <c r="E29" s="30">
-        <f t="shared" si="3"/>
+      <c r="E29" s="26">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F29" s="3">
         <v>696570</v>
       </c>
-      <c r="G29" s="55">
-        <v>0</v>
-      </c>
-      <c r="H29" s="56">
-        <v>0</v>
-      </c>
-      <c r="I29" s="56">
-        <v>0</v>
-      </c>
-      <c r="J29" s="34">
+      <c r="G29" s="23">
         <f t="shared" si="1"/>
-        <v>232190</v>
-      </c>
-      <c r="K29" s="27">
-        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29" s="11">
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -4012,41 +2047,28 @@
       <c r="D30" s="3">
         <v>491272</v>
       </c>
-      <c r="E30" s="30">
-        <f t="shared" si="3"/>
+      <c r="E30" s="26">
+        <f t="shared" si="2"/>
         <v>29775</v>
       </c>
       <c r="F30" s="3">
         <v>960774</v>
       </c>
-      <c r="G30" s="55">
-        <v>0</v>
-      </c>
-      <c r="H30" s="56">
-        <v>0</v>
-      </c>
-      <c r="I30" s="56">
-        <v>0</v>
-      </c>
-      <c r="J30" s="34">
+      <c r="G30" s="23">
         <f t="shared" si="1"/>
-        <v>240193.5</v>
-      </c>
-      <c r="K30" s="27">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3">
         <v>3</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30" s="11">
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -4059,41 +2081,28 @@
       <c r="D31" s="3">
         <v>311242</v>
       </c>
-      <c r="E31" s="30">
-        <f t="shared" si="3"/>
+      <c r="E31" s="26">
+        <f t="shared" si="2"/>
         <v>10516</v>
       </c>
       <c r="F31" s="3">
         <v>570744</v>
       </c>
-      <c r="G31" s="55">
-        <v>0</v>
-      </c>
-      <c r="H31" s="56">
-        <v>0</v>
-      </c>
-      <c r="I31" s="56">
-        <v>0</v>
-      </c>
-      <c r="J31" s="34">
+      <c r="G31" s="23">
         <f t="shared" si="1"/>
-        <v>285372</v>
-      </c>
-      <c r="K31" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
         <v>2</v>
       </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31" s="11">
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -4106,41 +2115,28 @@
       <c r="D32" s="3">
         <v>1856819</v>
       </c>
-      <c r="E32" s="30">
-        <f t="shared" si="3"/>
+      <c r="E32" s="26">
+        <f t="shared" si="2"/>
         <v>43260</v>
       </c>
       <c r="F32" s="3">
         <v>3098743</v>
       </c>
-      <c r="G32" s="55">
-        <v>0</v>
-      </c>
-      <c r="H32" s="56">
-        <v>0</v>
-      </c>
-      <c r="I32" s="56">
-        <v>0</v>
-      </c>
-      <c r="J32" s="34">
+      <c r="G32" s="23">
         <f t="shared" si="1"/>
-        <v>258228.58333333334</v>
-      </c>
-      <c r="K32" s="27">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="L32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3">
         <v>11</v>
       </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32" s="11">
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -4153,41 +2149,28 @@
       <c r="D33" s="3">
         <v>404026</v>
       </c>
-      <c r="E33" s="30">
-        <f t="shared" si="3"/>
+      <c r="E33" s="26">
+        <f t="shared" si="2"/>
         <v>24584</v>
       </c>
       <c r="F33" s="3">
         <v>693311</v>
       </c>
-      <c r="G33" s="55">
-        <v>0</v>
-      </c>
-      <c r="H33" s="56">
-        <v>0</v>
-      </c>
-      <c r="I33" s="56">
-        <v>0</v>
-      </c>
-      <c r="J33" s="34">
+      <c r="G33" s="23">
         <f t="shared" si="1"/>
-        <v>231103.66666666666</v>
-      </c>
-      <c r="K33" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>3</v>
       </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33" s="11">
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -4200,41 +2183,28 @@
       <c r="D34" s="3">
         <v>3760566</v>
       </c>
-      <c r="E34" s="30">
-        <f t="shared" si="3"/>
+      <c r="E34" s="26">
+        <f t="shared" si="2"/>
         <v>850726</v>
       </c>
       <c r="F34" s="3">
         <v>6250885</v>
       </c>
-      <c r="G34" s="55">
-        <v>1129584</v>
-      </c>
-      <c r="H34" s="56">
-        <v>0</v>
-      </c>
-      <c r="I34" s="56">
+      <c r="G34" s="23">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J34" s="34">
-        <f t="shared" si="1"/>
-        <v>243871.47619047618</v>
-      </c>
-      <c r="K34" s="27">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="L34" s="3">
+      <c r="H34" s="3">
         <v>21</v>
       </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34" s="11">
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34" s="11">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -4249,48 +2219,35 @@
         <f>1632720+92785</f>
         <v>1725505</v>
       </c>
-      <c r="E35" s="30">
-        <f t="shared" si="3"/>
+      <c r="E35" s="26">
+        <f t="shared" si="2"/>
         <v>42242</v>
       </c>
       <c r="F35" s="3">
         <f>3380609+190506</f>
         <v>3571115</v>
       </c>
-      <c r="G35" s="55">
-        <v>0</v>
-      </c>
-      <c r="H35" s="56">
-        <v>1</v>
-      </c>
-      <c r="I35" s="56">
-        <v>0</v>
-      </c>
-      <c r="J35" s="34">
-        <f t="shared" ref="J35:J52" si="4">(F35-G35)/(N35-SUM(H35:I35))</f>
-        <v>297592.91666666669</v>
-      </c>
-      <c r="K35" s="27">
-        <f t="shared" ref="K35:K52" si="5">N35-L35-M35</f>
+      <c r="G35" s="23">
+        <f t="shared" ref="G35:G52" si="3">J35-H35-I35</f>
         <v>10</v>
       </c>
-      <c r="L35" s="3">
+      <c r="H35" s="3">
         <v>3</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35" s="11">
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35" s="11">
         <v>13</v>
       </c>
-      <c r="O35" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="P35" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K35" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="L35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -4303,41 +2260,28 @@
       <c r="D36" s="3">
         <v>114377</v>
       </c>
-      <c r="E36" s="30">
-        <f t="shared" si="3"/>
+      <c r="E36" s="26">
+        <f t="shared" si="2"/>
         <v>13587</v>
       </c>
       <c r="F36" s="3">
         <v>321532</v>
       </c>
-      <c r="G36" s="55">
-        <v>0</v>
-      </c>
-      <c r="H36" s="56">
-        <v>0</v>
-      </c>
-      <c r="I36" s="56">
-        <v>0</v>
-      </c>
-      <c r="J36" s="34">
-        <f t="shared" si="4"/>
-        <v>321532</v>
-      </c>
-      <c r="K36" s="27">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="L36" s="3">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G36" s="23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -4350,41 +2294,28 @@
       <c r="D37" s="3">
         <v>2082684</v>
       </c>
-      <c r="E37" s="30">
-        <f t="shared" si="3"/>
+      <c r="E37" s="26">
+        <f t="shared" si="2"/>
         <v>32341</v>
       </c>
       <c r="F37" s="3">
         <v>4406358</v>
       </c>
-      <c r="G37" s="55">
-        <v>0</v>
-      </c>
-      <c r="H37" s="56">
-        <v>0</v>
-      </c>
-      <c r="I37" s="56">
-        <v>0</v>
-      </c>
-      <c r="J37" s="34">
-        <f t="shared" si="4"/>
-        <v>275397.375</v>
-      </c>
-      <c r="K37" s="27">
-        <f t="shared" si="5"/>
+      <c r="G37" s="23">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="L37" s="3">
+      <c r="H37" s="3">
         <v>4</v>
       </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37" s="11">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37" s="11">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -4397,41 +2328,28 @@
       <c r="D38" s="3">
         <v>428452</v>
       </c>
-      <c r="E38" s="30">
-        <f t="shared" si="3"/>
+      <c r="E38" s="26">
+        <f t="shared" si="2"/>
         <v>19853</v>
       </c>
       <c r="F38" s="3">
         <v>1178836</v>
       </c>
-      <c r="G38" s="55">
-        <v>0</v>
-      </c>
-      <c r="H38" s="56">
-        <v>0</v>
-      </c>
-      <c r="I38" s="56">
-        <v>0</v>
-      </c>
-      <c r="J38" s="34">
-        <f t="shared" si="4"/>
-        <v>235767.2</v>
-      </c>
-      <c r="K38" s="27">
-        <f t="shared" si="5"/>
+      <c r="G38" s="23">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="L38" s="3">
-        <v>1</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38" s="11">
+      <c r="H38" s="3">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -4444,41 +2362,28 @@
       <c r="D39" s="3">
         <v>1061412</v>
       </c>
-      <c r="E39" s="30">
-        <f t="shared" si="3"/>
+      <c r="E39" s="26">
+        <f t="shared" si="2"/>
         <v>83703</v>
       </c>
       <c r="F39" s="3">
         <v>1847646</v>
       </c>
-      <c r="G39" s="55">
-        <v>0</v>
-      </c>
-      <c r="H39" s="56">
-        <v>0</v>
-      </c>
-      <c r="I39" s="56">
-        <v>0</v>
-      </c>
-      <c r="J39" s="34">
-        <f t="shared" si="4"/>
-        <v>369529.2</v>
-      </c>
-      <c r="K39" s="27">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="L39" s="3">
+      <c r="G39" s="23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H39" s="3">
         <v>4</v>
       </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39" s="11">
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -4491,41 +2396,28 @@
       <c r="D40" s="3">
         <v>2712665</v>
       </c>
-      <c r="E40" s="30">
-        <f t="shared" si="3"/>
+      <c r="E40" s="26">
+        <f t="shared" si="2"/>
         <v>10950</v>
       </c>
       <c r="F40" s="3">
         <v>4929875</v>
       </c>
-      <c r="G40" s="55">
-        <v>231472</v>
-      </c>
-      <c r="H40" s="56">
-        <v>0</v>
-      </c>
-      <c r="I40" s="56">
-        <v>1</v>
-      </c>
-      <c r="J40" s="34">
-        <f t="shared" si="4"/>
-        <v>276376.64705882355</v>
-      </c>
-      <c r="K40" s="27">
-        <f t="shared" si="5"/>
+      <c r="G40" s="23">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="L40" s="3">
+      <c r="H40" s="3">
         <v>9</v>
       </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40" s="11">
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -4538,41 +2430,28 @@
       <c r="D41" s="3">
         <v>242575</v>
       </c>
-      <c r="E41" s="30">
-        <f t="shared" si="3"/>
+      <c r="E41" s="26">
+        <f t="shared" si="2"/>
         <v>867</v>
       </c>
       <c r="F41" s="3">
         <v>373280</v>
       </c>
-      <c r="G41" s="55">
-        <v>0</v>
-      </c>
-      <c r="H41" s="56">
-        <v>0</v>
-      </c>
-      <c r="I41" s="56">
-        <v>0</v>
-      </c>
-      <c r="J41" s="34">
-        <f t="shared" si="4"/>
-        <v>186640</v>
-      </c>
-      <c r="K41" s="27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="G41" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>2</v>
       </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41" s="11">
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -4585,41 +2464,28 @@
       <c r="D42" s="3">
         <v>758340</v>
       </c>
-      <c r="E42" s="30">
-        <f t="shared" si="3"/>
+      <c r="E42" s="26">
+        <f t="shared" si="2"/>
         <v>23458</v>
       </c>
       <c r="F42" s="3">
         <v>1709292</v>
       </c>
-      <c r="G42" s="55">
-        <v>0</v>
-      </c>
-      <c r="H42" s="56">
-        <v>0</v>
-      </c>
-      <c r="I42" s="56">
-        <v>0</v>
-      </c>
-      <c r="J42" s="34">
-        <f t="shared" si="4"/>
-        <v>244184.57142857142</v>
-      </c>
-      <c r="K42" s="27">
-        <f t="shared" si="5"/>
+      <c r="G42" s="23">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="L42" s="3">
+      <c r="H42" s="3">
         <v>2</v>
       </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42" s="11">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>87</v>
       </c>
@@ -4632,41 +2498,28 @@
       <c r="D43" s="3">
         <v>121033</v>
       </c>
-      <c r="E43" s="30">
-        <f t="shared" si="3"/>
+      <c r="E43" s="26">
+        <f t="shared" si="2"/>
         <v>12237</v>
       </c>
       <c r="F43" s="3">
         <v>335965</v>
       </c>
-      <c r="G43" s="55">
-        <v>0</v>
-      </c>
-      <c r="H43" s="56">
-        <v>0</v>
-      </c>
-      <c r="I43" s="56">
-        <v>0</v>
-      </c>
-      <c r="J43" s="34">
-        <f t="shared" si="4"/>
-        <v>335965</v>
-      </c>
-      <c r="K43" s="27">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G43" s="23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -4679,41 +2532,28 @@
       <c r="D44" s="3">
         <v>846450</v>
       </c>
-      <c r="E44" s="30">
-        <f t="shared" si="3"/>
+      <c r="E44" s="26">
+        <f t="shared" si="2"/>
         <v>33720</v>
       </c>
       <c r="F44" s="3">
         <v>2159825</v>
       </c>
-      <c r="G44" s="55">
-        <v>0</v>
-      </c>
-      <c r="H44" s="56">
-        <v>0</v>
-      </c>
-      <c r="I44" s="56">
-        <v>0</v>
-      </c>
-      <c r="J44" s="34">
-        <f t="shared" si="4"/>
-        <v>239980.55555555556</v>
-      </c>
-      <c r="K44" s="27">
-        <f t="shared" si="5"/>
+      <c r="G44" s="23">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="L44" s="3">
+      <c r="H44" s="3">
         <v>2</v>
       </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44" s="11">
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -4726,41 +2566,28 @@
       <c r="D45" s="3">
         <v>3852752</v>
       </c>
-      <c r="E45" s="30">
-        <f t="shared" si="3"/>
+      <c r="E45" s="26">
+        <f t="shared" si="2"/>
         <v>214444</v>
       </c>
       <c r="F45" s="3">
         <v>8202555</v>
       </c>
-      <c r="G45" s="55">
-        <v>647364</v>
-      </c>
-      <c r="H45" s="56">
-        <v>0</v>
-      </c>
-      <c r="I45" s="56">
-        <v>4</v>
-      </c>
-      <c r="J45" s="34">
-        <f t="shared" si="4"/>
-        <v>236099.71875</v>
-      </c>
-      <c r="K45" s="27">
-        <f t="shared" si="5"/>
+      <c r="G45" s="23">
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="L45" s="3">
+      <c r="H45" s="3">
         <v>13</v>
       </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45" s="11">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45" s="11">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -4773,41 +2600,28 @@
       <c r="D46" s="3">
         <v>374009</v>
       </c>
-      <c r="E46" s="30">
-        <f t="shared" si="3"/>
+      <c r="E46" s="26">
+        <f t="shared" si="2"/>
         <v>61190</v>
       </c>
       <c r="F46" s="3">
         <v>1052506</v>
       </c>
-      <c r="G46" s="55">
-        <v>0</v>
-      </c>
-      <c r="H46" s="56">
-        <v>0</v>
-      </c>
-      <c r="I46" s="56">
-        <v>0</v>
-      </c>
-      <c r="J46" s="34">
-        <f t="shared" si="4"/>
-        <v>263126.5</v>
-      </c>
-      <c r="K46" s="27">
-        <f t="shared" si="5"/>
+      <c r="G46" s="23">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L46" s="3">
-        <v>1</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46" s="11">
+      <c r="H46" s="3">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -4820,41 +2634,28 @@
       <c r="D47" s="3">
         <v>188547</v>
       </c>
-      <c r="E47" s="30">
-        <f t="shared" si="3"/>
+      <c r="E47" s="26">
+        <f t="shared" si="2"/>
         <v>18978</v>
       </c>
       <c r="F47" s="3">
         <v>278230</v>
       </c>
-      <c r="G47" s="55">
-        <v>0</v>
-      </c>
-      <c r="H47" s="56">
-        <v>0</v>
-      </c>
-      <c r="I47" s="56">
-        <v>0</v>
-      </c>
-      <c r="J47" s="34">
-        <f t="shared" si="4"/>
-        <v>278230</v>
-      </c>
-      <c r="K47" s="27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>1</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G47" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>96</v>
       </c>
@@ -4867,41 +2668,28 @@
       <c r="D48" s="3">
         <v>1867061</v>
       </c>
-      <c r="E48" s="30">
-        <f t="shared" si="3"/>
+      <c r="E48" s="26">
+        <f t="shared" si="2"/>
         <v>37194</v>
       </c>
       <c r="F48" s="3">
         <v>3312956</v>
       </c>
-      <c r="G48" s="55">
-        <v>217722</v>
-      </c>
-      <c r="H48" s="56">
-        <v>0</v>
-      </c>
-      <c r="I48" s="56">
-        <v>1</v>
-      </c>
-      <c r="J48" s="34">
-        <f t="shared" si="4"/>
-        <v>309523.40000000002</v>
-      </c>
-      <c r="K48" s="27">
-        <f t="shared" si="5"/>
+      <c r="G48" s="23">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="L48" s="3">
+      <c r="H48" s="3">
         <v>7</v>
       </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48" s="11">
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48" s="11">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -4914,41 +2702,28 @@
       <c r="D49" s="3">
         <v>1888593</v>
       </c>
-      <c r="E49" s="30">
-        <f t="shared" si="3"/>
+      <c r="E49" s="26">
+        <f t="shared" si="2"/>
         <v>233614</v>
       </c>
       <c r="F49" s="3">
         <v>3021951</v>
       </c>
-      <c r="G49" s="55">
-        <v>535400</v>
-      </c>
-      <c r="H49" s="56">
-        <v>0</v>
-      </c>
-      <c r="I49" s="56">
-        <v>2</v>
-      </c>
-      <c r="J49" s="34">
-        <f t="shared" si="4"/>
-        <v>310818.875</v>
-      </c>
-      <c r="K49" s="27">
-        <f t="shared" si="5"/>
+      <c r="G49" s="23">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L49" s="3">
+      <c r="H49" s="3">
         <v>7</v>
       </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49" s="11">
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -4961,41 +2736,28 @@
       <c r="D50" s="3">
         <v>234568</v>
       </c>
-      <c r="E50" s="30">
-        <f t="shared" si="3"/>
+      <c r="E50" s="26">
+        <f t="shared" si="2"/>
         <v>6277</v>
       </c>
       <c r="F50" s="3">
         <v>577991</v>
       </c>
-      <c r="G50" s="55">
-        <v>0</v>
-      </c>
-      <c r="H50" s="56">
-        <v>0</v>
-      </c>
-      <c r="I50" s="56">
-        <v>0</v>
-      </c>
-      <c r="J50" s="34">
-        <f t="shared" si="4"/>
-        <v>192663.66666666666</v>
-      </c>
-      <c r="K50" s="27">
-        <f t="shared" si="5"/>
+      <c r="G50" s="23">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L50" s="3">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50" s="11">
+      <c r="H50" s="3">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -5008,41 +2770,28 @@
       <c r="D51" s="3">
         <v>1367492</v>
       </c>
-      <c r="E51" s="30">
-        <f t="shared" si="3"/>
+      <c r="E51" s="26">
+        <f t="shared" si="2"/>
         <v>31199</v>
       </c>
       <c r="F51" s="3">
         <v>2571655</v>
       </c>
-      <c r="G51" s="55">
-        <v>317295</v>
-      </c>
-      <c r="H51" s="56">
-        <v>0</v>
-      </c>
-      <c r="I51" s="56">
-        <v>0</v>
-      </c>
-      <c r="J51" s="34">
-        <f t="shared" si="4"/>
-        <v>281795</v>
-      </c>
-      <c r="K51" s="27">
-        <f t="shared" si="5"/>
+      <c r="G51" s="23">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="L51" s="3">
+      <c r="H51" s="3">
         <v>3</v>
       </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51" s="11">
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -5055,44 +2804,31 @@
       <c r="D52" s="3">
         <v>59903</v>
       </c>
-      <c r="E52" s="30">
-        <f t="shared" si="3"/>
+      <c r="E52" s="26">
+        <f t="shared" si="2"/>
         <v>17409</v>
       </c>
       <c r="F52" s="3">
         <v>205275</v>
       </c>
-      <c r="G52" s="55">
-        <v>0</v>
-      </c>
-      <c r="H52" s="56">
-        <v>0</v>
-      </c>
-      <c r="I52" s="56">
-        <v>0</v>
-      </c>
-      <c r="J52" s="34">
-        <f t="shared" si="4"/>
-        <v>205275</v>
-      </c>
-      <c r="K52" s="27">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E53" s="30"/>
-    </row>
-    <row r="54" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G52" s="23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E53" s="26"/>
+    </row>
+    <row r="54" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>13</v>
       </c>
@@ -5102,84 +2838,65 @@
         <v>50563754</v>
       </c>
       <c r="D54" s="6">
-        <f t="shared" ref="D54:F54" si="6">SUM(D3:D52)</f>
+        <f t="shared" ref="D54:F54" si="4">SUM(D3:D52)</f>
         <v>60412408</v>
       </c>
-      <c r="E54" s="31">
-        <f t="shared" si="6"/>
+      <c r="E54" s="27">
+        <f t="shared" si="4"/>
         <v>3231175</v>
       </c>
       <c r="F54" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>114207337</v>
       </c>
-      <c r="G54" s="15">
+      <c r="G54" s="24">
         <f>SUM(G3:G52)</f>
-        <v>7678218</v>
-      </c>
-      <c r="H54" s="6">
-        <f t="shared" ref="H54:I54" si="7">SUM(H3:H52)</f>
-        <v>3</v>
-      </c>
-      <c r="I54" s="6">
-        <f t="shared" si="7"/>
-        <v>36</v>
-      </c>
-      <c r="J54" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="K54" s="28">
-        <f>SUM(K3:K52)</f>
         <v>199</v>
       </c>
-      <c r="L54" s="5">
-        <f t="shared" ref="L54:N54" si="8">SUM(L3:L52)</f>
+      <c r="H54" s="5">
+        <f t="shared" ref="H54:J54" si="5">SUM(H3:H52)</f>
         <v>235</v>
       </c>
-      <c r="M54" s="5">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="N54" s="5">
-        <f t="shared" si="8"/>
+      <c r="I54" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J54" s="5">
+        <f t="shared" si="5"/>
         <v>435</v>
       </c>
-      <c r="O54" s="17"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57" s="23" t="s">
+      <c r="K54" s="17"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="24">
+      <c r="B57" s="19"/>
+      <c r="C57" s="20">
         <v>50467181</v>
       </c>
-      <c r="D57" s="25">
+      <c r="D57" s="21">
         <v>60319623</v>
       </c>
-      <c r="E57" s="32"/>
-      <c r="F57" s="25">
+      <c r="E57" s="28"/>
+      <c r="F57" s="21">
         <v>114016831</v>
       </c>
-      <c r="G57" s="24"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="29">
+      <c r="G57" s="25">
         <v>199</v>
       </c>
-      <c r="L57" s="23">
+      <c r="H57" s="19">
         <v>235</v>
       </c>
-      <c r="M57" s="23">
-        <v>1</v>
-      </c>
-      <c r="N57" s="23">
+      <c r="I57" s="19">
+        <v>1</v>
+      </c>
+      <c r="J57" s="19">
         <v>435</v>
       </c>
-      <c r="O57" s="26"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K57" s="22"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>106</v>
       </c>
@@ -5188,39 +2905,38 @@
         <v>96573</v>
       </c>
       <c r="D58" s="3">
-        <f t="shared" ref="D58:F58" si="9">D54-D57</f>
+        <f t="shared" ref="D58:F58" si="6">D54-D57</f>
         <v>92785</v>
       </c>
-      <c r="E58" s="33" t="s">
+      <c r="E58" s="29" t="s">
         <v>14</v>
       </c>
       <c r="F58" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>190506</v>
       </c>
-      <c r="K58" s="27">
-        <f>K54-K57</f>
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <f>L54-L57</f>
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <f>M54-M57</f>
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <f>N54-N57</f>
-        <v>0</v>
-      </c>
-      <c r="O58" s="57" t="s">
-        <v>157</v>
+      <c r="G58" s="23">
+        <f>G54-G57</f>
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f>H54-H57</f>
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <f>I54-I57</f>
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <f>J54-J57</f>
+        <v>0</v>
+      </c>
+      <c r="K58" s="48" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:X54">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:T54">
     <sortCondition ref="A5:A54"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5229,13 +2945,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K82"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4:L77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5243,13 +2959,13 @@
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.83203125" style="16"/>
-    <col min="6" max="6" width="10.83203125" style="37"/>
+    <col min="6" max="6" width="10.83203125" style="30"/>
     <col min="7" max="7" width="10.83203125" style="3"/>
     <col min="8" max="8" width="10.83203125" style="16"/>
-    <col min="11" max="11" width="52.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.83203125" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>14</v>
@@ -5268,7 +2984,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="14"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5303,7 +3019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -5311,7 +3027,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D3" s="12">
         <v>0</v>
@@ -5319,7 +3035,7 @@
       <c r="E3" s="3">
         <v>185010</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="26">
         <f t="shared" ref="F3:F77" si="0">G3-SUM(D3:E3)</f>
         <v>4153</v>
       </c>
@@ -5335,8 +3051,12 @@
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" t="str">
+        <f>IF(AND(SUM(H3:J3)=0,G3&gt;0), "BAD", "OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -5352,7 +3072,7 @@
       <c r="E4" s="3">
         <v>0</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5368,8 +3088,12 @@
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" t="str">
+        <f t="shared" ref="L4:L67" si="1">IF(AND(SUM(H4:J4)=0,G4&gt;0), "BAD", "OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -5377,7 +3101,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D5" s="12">
         <v>0</v>
@@ -5385,7 +3109,7 @@
       <c r="E5" s="3">
         <v>113044</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="26">
         <f t="shared" si="0"/>
         <v>19007</v>
       </c>
@@ -5401,8 +3125,12 @@
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -5418,7 +3146,7 @@
       <c r="E6" s="3">
         <v>0</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5434,314 +3162,354 @@
       <c r="J6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="39">
-        <v>0</v>
-      </c>
-      <c r="E7" s="33">
+      <c r="C7" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="32">
+        <v>0</v>
+      </c>
+      <c r="E7" s="29">
         <v>205860</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="26">
         <f t="shared" si="0"/>
         <v>55158</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="29">
         <v>261018</v>
       </c>
-      <c r="H7" s="27">
-        <v>0</v>
-      </c>
-      <c r="I7" s="38">
-        <v>1</v>
-      </c>
-      <c r="J7" s="38">
-        <v>0</v>
-      </c>
-      <c r="K7" s="27"/>
-    </row>
-    <row r="8" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
+      <c r="H7" s="23">
+        <v>0</v>
+      </c>
+      <c r="I7" s="31">
+        <v>1</v>
+      </c>
+      <c r="J7" s="31">
+        <v>0</v>
+      </c>
+      <c r="K7" s="23"/>
+      <c r="L7" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" s="39">
-        <v>0</v>
-      </c>
-      <c r="E8" s="33">
+      <c r="C8" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="32">
+        <v>0</v>
+      </c>
+      <c r="E8" s="29">
         <v>201939</v>
       </c>
-      <c r="F8" s="30">
-        <f t="shared" ref="F8:F15" si="1">G8-SUM(D8:E8)</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="33">
+      <c r="F8" s="26">
+        <f t="shared" ref="F8:F15" si="2">G8-SUM(D8:E8)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="29">
         <v>201939</v>
       </c>
-      <c r="H8" s="27">
-        <v>0</v>
-      </c>
-      <c r="I8" s="38">
-        <v>1</v>
-      </c>
-      <c r="J8" s="38">
-        <v>0</v>
-      </c>
-      <c r="K8" s="27"/>
-    </row>
-    <row r="9" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
+      <c r="H8" s="23">
+        <v>0</v>
+      </c>
+      <c r="I8" s="31">
+        <v>1</v>
+      </c>
+      <c r="J8" s="31">
+        <v>0</v>
+      </c>
+      <c r="K8" s="23"/>
+      <c r="L8" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="39">
+      <c r="C9" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="32">
         <v>170785</v>
       </c>
-      <c r="E9" s="33">
-        <v>0</v>
-      </c>
-      <c r="F9" s="30">
+      <c r="E9" s="29">
+        <v>0</v>
+      </c>
+      <c r="F9" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="29">
+        <v>170785</v>
+      </c>
+      <c r="H9" s="23">
+        <v>1</v>
+      </c>
+      <c r="I9" s="31">
+        <v>0</v>
+      </c>
+      <c r="J9" s="31">
+        <v>0</v>
+      </c>
+      <c r="K9" s="23"/>
+      <c r="L9" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="33">
-        <v>170785</v>
-      </c>
-      <c r="H9" s="27">
-        <v>1</v>
-      </c>
-      <c r="I9" s="38">
-        <v>0</v>
-      </c>
-      <c r="J9" s="38">
-        <v>0</v>
-      </c>
-      <c r="K9" s="27"/>
-    </row>
-    <row r="10" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="s">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="39">
-        <v>0</v>
-      </c>
-      <c r="E10" s="33">
+      <c r="C10" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="32">
+        <v>0</v>
+      </c>
+      <c r="E10" s="29">
         <v>260580</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="26">
+        <f t="shared" si="2"/>
+        <v>34257</v>
+      </c>
+      <c r="G10" s="29">
+        <v>294837</v>
+      </c>
+      <c r="H10" s="23">
+        <v>0</v>
+      </c>
+      <c r="I10" s="31">
+        <v>1</v>
+      </c>
+      <c r="J10" s="31">
+        <v>0</v>
+      </c>
+      <c r="K10" s="23"/>
+      <c r="L10" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>34257</v>
-      </c>
-      <c r="G10" s="33">
-        <v>294837</v>
-      </c>
-      <c r="H10" s="27">
-        <v>0</v>
-      </c>
-      <c r="I10" s="38">
-        <v>1</v>
-      </c>
-      <c r="J10" s="38">
-        <v>0</v>
-      </c>
-      <c r="K10" s="27"/>
-    </row>
-    <row r="11" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" s="39">
-        <v>0</v>
-      </c>
-      <c r="E11" s="33">
+      <c r="C11" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="32">
+        <v>0</v>
+      </c>
+      <c r="E11" s="29">
         <v>183677</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="26">
+        <f t="shared" si="2"/>
+        <v>42044</v>
+      </c>
+      <c r="G11" s="29">
+        <v>225721</v>
+      </c>
+      <c r="H11" s="23">
+        <v>0</v>
+      </c>
+      <c r="I11" s="31">
+        <v>1</v>
+      </c>
+      <c r="J11" s="31">
+        <v>0</v>
+      </c>
+      <c r="K11" s="23"/>
+      <c r="L11" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>42044</v>
-      </c>
-      <c r="G11" s="33">
-        <v>225721</v>
-      </c>
-      <c r="H11" s="27">
-        <v>0</v>
-      </c>
-      <c r="I11" s="38">
-        <v>1</v>
-      </c>
-      <c r="J11" s="38">
-        <v>0</v>
-      </c>
-      <c r="K11" s="27"/>
-    </row>
-    <row r="12" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="D12" s="39">
-        <v>0</v>
-      </c>
-      <c r="E12" s="33">
+      <c r="C12" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="32">
+        <v>0</v>
+      </c>
+      <c r="E12" s="29">
         <v>202636</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="29">
+        <v>202636</v>
+      </c>
+      <c r="H12" s="23">
+        <v>0</v>
+      </c>
+      <c r="I12" s="31">
+        <v>1</v>
+      </c>
+      <c r="J12" s="31">
+        <v>0</v>
+      </c>
+      <c r="K12" s="23"/>
+      <c r="L12" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="33">
-        <v>202636</v>
-      </c>
-      <c r="H12" s="27">
-        <v>0</v>
-      </c>
-      <c r="I12" s="38">
-        <v>1</v>
-      </c>
-      <c r="J12" s="38">
-        <v>0</v>
-      </c>
-      <c r="K12" s="27"/>
-    </row>
-    <row r="13" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="39">
-        <v>0</v>
-      </c>
-      <c r="E13" s="33">
+      <c r="C13" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="32">
+        <v>0</v>
+      </c>
+      <c r="E13" s="29">
         <v>110195</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="26">
+        <f t="shared" si="2"/>
+        <v>41711</v>
+      </c>
+      <c r="G13" s="29">
+        <v>151906</v>
+      </c>
+      <c r="H13" s="23">
+        <v>0</v>
+      </c>
+      <c r="I13" s="31">
+        <v>1</v>
+      </c>
+      <c r="J13" s="31">
+        <v>0</v>
+      </c>
+      <c r="K13" s="23"/>
+      <c r="L13" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>41711</v>
-      </c>
-      <c r="G13" s="33">
-        <v>151906</v>
-      </c>
-      <c r="H13" s="27">
-        <v>0</v>
-      </c>
-      <c r="I13" s="38">
-        <v>1</v>
-      </c>
-      <c r="J13" s="38">
-        <v>0</v>
-      </c>
-      <c r="K13" s="27"/>
-    </row>
-    <row r="14" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="39">
-        <v>0</v>
-      </c>
-      <c r="E14" s="33">
+      <c r="C14" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="32">
+        <v>0</v>
+      </c>
+      <c r="E14" s="29">
         <v>93938</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="26">
+        <f t="shared" si="2"/>
+        <v>27511</v>
+      </c>
+      <c r="G14" s="29">
+        <v>121449</v>
+      </c>
+      <c r="H14" s="23">
+        <v>0</v>
+      </c>
+      <c r="I14" s="31">
+        <v>1</v>
+      </c>
+      <c r="J14" s="31">
+        <v>0</v>
+      </c>
+      <c r="K14" s="23"/>
+      <c r="L14" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>27511</v>
-      </c>
-      <c r="G14" s="33">
-        <v>121449</v>
-      </c>
-      <c r="H14" s="27">
-        <v>0</v>
-      </c>
-      <c r="I14" s="38">
-        <v>1</v>
-      </c>
-      <c r="J14" s="38">
-        <v>0</v>
-      </c>
-      <c r="K14" s="27"/>
-    </row>
-    <row r="15" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="39">
-        <v>0</v>
-      </c>
-      <c r="E15" s="33">
+      <c r="C15" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="32">
+        <v>0</v>
+      </c>
+      <c r="E15" s="29">
         <v>143322</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="29">
+        <v>143322</v>
+      </c>
+      <c r="H15" s="23">
+        <v>0</v>
+      </c>
+      <c r="I15" s="31">
+        <v>1</v>
+      </c>
+      <c r="J15" s="31">
+        <v>0</v>
+      </c>
+      <c r="K15" s="23"/>
+      <c r="L15" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="33">
-        <v>143322</v>
-      </c>
-      <c r="H15" s="27">
-        <v>0</v>
-      </c>
-      <c r="I15" s="38">
-        <v>1</v>
-      </c>
-      <c r="J15" s="38">
-        <v>0</v>
-      </c>
-      <c r="K15" s="27"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -5757,7 +3525,7 @@
       <c r="E16" s="3">
         <v>0</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5773,8 +3541,12 @@
       <c r="J16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -5790,7 +3562,7 @@
       <c r="E17" s="3">
         <v>0</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5806,8 +3578,12 @@
       <c r="J17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -5823,7 +3599,7 @@
       <c r="E18" s="3">
         <v>0</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5839,218 +3615,250 @@
       <c r="J18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="38" t="s">
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="27">
-        <v>0</v>
-      </c>
-      <c r="I19" s="38">
-        <v>1</v>
-      </c>
-      <c r="J19" s="38">
-        <v>0</v>
-      </c>
-      <c r="K19" s="27" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="38" t="s">
+      <c r="C19" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="23">
+        <v>0</v>
+      </c>
+      <c r="I19" s="31">
+        <v>1</v>
+      </c>
+      <c r="J19" s="31">
+        <v>0</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="L19" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="27">
-        <v>0</v>
-      </c>
-      <c r="I20" s="38">
-        <v>1</v>
-      </c>
-      <c r="J20" s="38">
-        <v>0</v>
-      </c>
-      <c r="K20" s="27" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="38" t="s">
+      <c r="C20" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="32"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="23">
+        <v>0</v>
+      </c>
+      <c r="I20" s="31">
+        <v>1</v>
+      </c>
+      <c r="J20" s="31">
+        <v>0</v>
+      </c>
+      <c r="K20" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="L20" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="D21" s="39">
-        <v>0</v>
-      </c>
-      <c r="E21" s="33">
+      <c r="C21" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="32">
+        <v>0</v>
+      </c>
+      <c r="E21" s="29">
         <v>202659</v>
       </c>
-      <c r="F21" s="30">
-        <f t="shared" ref="F21" si="2">G21-SUM(D21:E21)</f>
+      <c r="F21" s="26">
+        <f t="shared" ref="F21" si="3">G21-SUM(D21:E21)</f>
         <v>165</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="29">
         <v>202824</v>
       </c>
-      <c r="H21" s="27">
-        <v>0</v>
-      </c>
-      <c r="I21" s="38">
-        <v>1</v>
-      </c>
-      <c r="J21" s="38">
-        <v>0</v>
-      </c>
-      <c r="K21" s="27"/>
-    </row>
-    <row r="22" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="38" t="s">
+      <c r="H21" s="23">
+        <v>0</v>
+      </c>
+      <c r="I21" s="31">
+        <v>1</v>
+      </c>
+      <c r="J21" s="31">
+        <v>0</v>
+      </c>
+      <c r="K21" s="23"/>
+      <c r="L21" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="27">
-        <v>0</v>
-      </c>
-      <c r="I22" s="38">
-        <v>1</v>
-      </c>
-      <c r="J22" s="38">
-        <v>0</v>
-      </c>
-      <c r="K22" s="27" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="38" t="s">
+      <c r="C22" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="32"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="23">
+        <v>0</v>
+      </c>
+      <c r="I22" s="31">
+        <v>1</v>
+      </c>
+      <c r="J22" s="31">
+        <v>0</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="L22" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="27">
-        <v>0</v>
-      </c>
-      <c r="I23" s="38">
-        <v>1</v>
-      </c>
-      <c r="J23" s="38">
-        <v>0</v>
-      </c>
-      <c r="K23" s="27" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="40" t="s">
+      <c r="C23" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="32"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="23">
+        <v>0</v>
+      </c>
+      <c r="I23" s="31">
+        <v>1</v>
+      </c>
+      <c r="J23" s="31">
+        <v>0</v>
+      </c>
+      <c r="K23" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="L23" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" s="42">
-        <v>0</v>
-      </c>
-      <c r="E24" s="43">
+      <c r="C24" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="35">
+        <v>0</v>
+      </c>
+      <c r="E24" s="36">
         <v>275406</v>
       </c>
-      <c r="F24" s="44">
+      <c r="F24" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="43">
+      <c r="G24" s="36">
         <v>275406</v>
       </c>
-      <c r="H24" s="41">
-        <v>0</v>
-      </c>
-      <c r="I24" s="40">
-        <v>1</v>
-      </c>
-      <c r="J24" s="40">
-        <v>0</v>
-      </c>
-      <c r="K24" s="41"/>
-    </row>
-    <row r="25" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="40" t="s">
+      <c r="H24" s="34">
+        <v>0</v>
+      </c>
+      <c r="I24" s="33">
+        <v>1</v>
+      </c>
+      <c r="J24" s="33">
+        <v>0</v>
+      </c>
+      <c r="K24" s="34"/>
+      <c r="L24" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" s="42">
+      <c r="C25" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="35">
         <v>198152</v>
       </c>
-      <c r="E25" s="43">
-        <v>0</v>
-      </c>
-      <c r="F25" s="44">
-        <f t="shared" ref="F25" si="3">G25-SUM(D25:E25)</f>
+      <c r="E25" s="36">
+        <v>0</v>
+      </c>
+      <c r="F25" s="37">
+        <f t="shared" ref="F25" si="4">G25-SUM(D25:E25)</f>
         <v>564</v>
       </c>
-      <c r="G25" s="43">
+      <c r="G25" s="36">
         <v>198716</v>
       </c>
-      <c r="H25" s="41">
-        <v>1</v>
-      </c>
-      <c r="I25" s="40">
-        <v>0</v>
-      </c>
-      <c r="J25" s="40">
-        <v>0</v>
-      </c>
-      <c r="K25" s="41"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H25" s="34">
+        <v>1</v>
+      </c>
+      <c r="I25" s="33">
+        <v>0</v>
+      </c>
+      <c r="J25" s="33">
+        <v>0</v>
+      </c>
+      <c r="K25" s="34"/>
+      <c r="L25" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -6066,7 +3874,7 @@
       <c r="E26" s="3">
         <v>0</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6082,8 +3890,12 @@
       <c r="J26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L26" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -6099,7 +3911,7 @@
       <c r="E27" s="3">
         <v>0</v>
       </c>
-      <c r="F27" s="30">
+      <c r="F27" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6115,8 +3927,12 @@
       <c r="J27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -6132,7 +3948,7 @@
       <c r="E28" s="3">
         <v>0</v>
       </c>
-      <c r="F28" s="30">
+      <c r="F28" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6148,8 +3964,12 @@
       <c r="J28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -6165,7 +3985,7 @@
       <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="30">
+      <c r="F29" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6181,8 +4001,12 @@
       <c r="J29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -6198,7 +4022,7 @@
       <c r="E30" s="3">
         <v>0</v>
       </c>
-      <c r="F30" s="30">
+      <c r="F30" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6214,8 +4038,12 @@
       <c r="J30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L30" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -6231,7 +4059,7 @@
       <c r="E31" s="3">
         <v>0</v>
       </c>
-      <c r="F31" s="30">
+      <c r="F31" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6247,8 +4075,12 @@
       <c r="J31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L31" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -6264,7 +4096,7 @@
       <c r="E32" s="3">
         <v>0</v>
       </c>
-      <c r="F32" s="30">
+      <c r="F32" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6280,42 +4112,50 @@
       <c r="J32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="45" t="s">
+      <c r="L32" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="D33" s="47">
-        <v>0</v>
-      </c>
-      <c r="E33" s="48">
+      <c r="C33" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="40">
+        <v>0</v>
+      </c>
+      <c r="E33" s="41">
         <v>190182</v>
       </c>
-      <c r="F33" s="49">
+      <c r="F33" s="42">
         <f t="shared" si="0"/>
         <v>45800</v>
       </c>
-      <c r="G33" s="48">
+      <c r="G33" s="41">
         <v>235982</v>
       </c>
-      <c r="H33" s="46">
-        <v>0</v>
-      </c>
-      <c r="I33" s="45">
-        <v>1</v>
-      </c>
-      <c r="J33" s="45">
-        <v>0</v>
-      </c>
-      <c r="K33" s="46"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H33" s="39">
+        <v>0</v>
+      </c>
+      <c r="I33" s="38">
+        <v>1</v>
+      </c>
+      <c r="J33" s="38">
+        <v>0</v>
+      </c>
+      <c r="K33" s="39"/>
+      <c r="L33" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -6331,7 +4171,7 @@
       <c r="E34" s="3">
         <v>0</v>
       </c>
-      <c r="F34" s="30">
+      <c r="F34" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6347,8 +4187,12 @@
       <c r="J34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L34" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -6364,7 +4208,7 @@
       <c r="E35" s="3">
         <v>0</v>
       </c>
-      <c r="F35" s="30">
+      <c r="F35" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6380,180 +4224,204 @@
       <c r="J35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="45" t="s">
+      <c r="L35" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="D36" s="47">
-        <v>0</v>
-      </c>
-      <c r="E36" s="48">
+      <c r="C36" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="40">
+        <v>0</v>
+      </c>
+      <c r="E36" s="41">
         <v>211790</v>
       </c>
-      <c r="F36" s="49">
+      <c r="F36" s="42">
         <f t="shared" si="0"/>
         <v>63276</v>
       </c>
-      <c r="G36" s="48">
+      <c r="G36" s="41">
         <v>275066</v>
       </c>
-      <c r="H36" s="46">
-        <v>0</v>
-      </c>
-      <c r="I36" s="45">
-        <v>1</v>
-      </c>
-      <c r="J36" s="45">
-        <v>0</v>
-      </c>
-      <c r="K36" s="46"/>
-    </row>
-    <row r="37" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="45" t="s">
+      <c r="H36" s="39">
+        <v>0</v>
+      </c>
+      <c r="I36" s="38">
+        <v>1</v>
+      </c>
+      <c r="J36" s="38">
+        <v>0</v>
+      </c>
+      <c r="K36" s="39"/>
+      <c r="L36" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="D37" s="47">
-        <v>0</v>
-      </c>
-      <c r="E37" s="48">
+      <c r="C37" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" s="40">
+        <v>0</v>
+      </c>
+      <c r="E37" s="41">
         <v>245289</v>
       </c>
-      <c r="F37" s="49">
-        <f t="shared" ref="F37:F39" si="4">G37-SUM(D37:E37)</f>
+      <c r="F37" s="42">
+        <f t="shared" ref="F37:F39" si="5">G37-SUM(D37:E37)</f>
         <v>76838</v>
       </c>
-      <c r="G37" s="48">
+      <c r="G37" s="41">
         <v>322127</v>
       </c>
-      <c r="H37" s="46">
-        <v>0</v>
-      </c>
-      <c r="I37" s="45">
-        <v>1</v>
-      </c>
-      <c r="J37" s="45">
-        <v>0</v>
-      </c>
-      <c r="K37" s="46"/>
-    </row>
-    <row r="38" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="45" t="s">
+      <c r="H37" s="39">
+        <v>0</v>
+      </c>
+      <c r="I37" s="38">
+        <v>1</v>
+      </c>
+      <c r="J37" s="38">
+        <v>0</v>
+      </c>
+      <c r="K37" s="39"/>
+      <c r="L37" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="D38" s="47">
-        <v>0</v>
-      </c>
-      <c r="E38" s="48">
+      <c r="C38" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" s="40">
+        <v>0</v>
+      </c>
+      <c r="E38" s="41">
         <v>216557</v>
       </c>
-      <c r="F38" s="49">
-        <f t="shared" si="4"/>
+      <c r="F38" s="42">
+        <f t="shared" si="5"/>
         <v>32818</v>
       </c>
-      <c r="G38" s="48">
+      <c r="G38" s="41">
         <v>249375</v>
       </c>
-      <c r="H38" s="46">
-        <v>0</v>
-      </c>
-      <c r="I38" s="45">
-        <v>1</v>
-      </c>
-      <c r="J38" s="45">
-        <v>0</v>
-      </c>
-      <c r="K38" s="46"/>
-    </row>
-    <row r="39" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="45" t="s">
+      <c r="H38" s="39">
+        <v>0</v>
+      </c>
+      <c r="I38" s="38">
+        <v>1</v>
+      </c>
+      <c r="J38" s="38">
+        <v>0</v>
+      </c>
+      <c r="K38" s="39"/>
+      <c r="L38" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="D39" s="47">
-        <v>0</v>
-      </c>
-      <c r="E39" s="48">
+      <c r="C39" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" s="40">
+        <v>0</v>
+      </c>
+      <c r="E39" s="41">
         <v>259159</v>
       </c>
-      <c r="F39" s="49">
-        <f t="shared" si="4"/>
+      <c r="F39" s="42">
+        <f t="shared" si="5"/>
         <v>68221</v>
       </c>
-      <c r="G39" s="48">
+      <c r="G39" s="41">
         <v>327380</v>
       </c>
-      <c r="H39" s="46">
-        <v>0</v>
-      </c>
-      <c r="I39" s="45">
-        <v>1</v>
-      </c>
-      <c r="J39" s="45">
-        <v>0</v>
-      </c>
-      <c r="K39" s="46"/>
-    </row>
-    <row r="40" spans="1:11" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="40" t="s">
+      <c r="H39" s="39">
+        <v>0</v>
+      </c>
+      <c r="I39" s="38">
+        <v>1</v>
+      </c>
+      <c r="J39" s="38">
+        <v>0</v>
+      </c>
+      <c r="K39" s="39"/>
+      <c r="L39" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="40" t="s">
+      <c r="B40" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="D40" s="42">
-        <v>0</v>
-      </c>
-      <c r="E40" s="43">
+      <c r="C40" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="35">
+        <v>0</v>
+      </c>
+      <c r="E40" s="36">
         <v>165355</v>
       </c>
-      <c r="F40" s="44">
+      <c r="F40" s="37">
         <f t="shared" si="0"/>
         <v>30944</v>
       </c>
-      <c r="G40" s="43">
+      <c r="G40" s="36">
         <v>196299</v>
       </c>
-      <c r="H40" s="41">
-        <v>0</v>
-      </c>
-      <c r="I40" s="40">
-        <v>1</v>
-      </c>
-      <c r="J40" s="40">
-        <v>0</v>
-      </c>
-      <c r="K40" s="41" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H40" s="34">
+        <v>0</v>
+      </c>
+      <c r="I40" s="33">
+        <v>1</v>
+      </c>
+      <c r="J40" s="33">
+        <v>0</v>
+      </c>
+      <c r="K40" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="L40" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -6569,7 +4437,7 @@
       <c r="E41" s="3">
         <v>0</v>
       </c>
-      <c r="F41" s="30">
+      <c r="F41" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6585,44 +4453,52 @@
       <c r="J41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="45" t="s">
+      <c r="L41" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="45" t="s">
+      <c r="B42" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="D42" s="47">
-        <v>0</v>
-      </c>
-      <c r="E42" s="48">
+      <c r="C42" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" s="40">
+        <v>0</v>
+      </c>
+      <c r="E42" s="41">
         <v>158921</v>
       </c>
-      <c r="F42" s="49">
+      <c r="F42" s="42">
         <f t="shared" si="0"/>
         <v>62458</v>
       </c>
-      <c r="G42" s="48">
+      <c r="G42" s="41">
         <v>221379</v>
       </c>
-      <c r="H42" s="46">
-        <v>0</v>
-      </c>
-      <c r="I42" s="45">
-        <v>1</v>
-      </c>
-      <c r="J42" s="45">
-        <v>0</v>
-      </c>
-      <c r="K42" s="46" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H42" s="39">
+        <v>0</v>
+      </c>
+      <c r="I42" s="38">
+        <v>1</v>
+      </c>
+      <c r="J42" s="38">
+        <v>0</v>
+      </c>
+      <c r="K42" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="L42" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -6638,7 +4514,7 @@
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="30">
+      <c r="F43" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6654,8 +4530,12 @@
       <c r="J43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L43" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>60</v>
       </c>
@@ -6671,7 +4551,7 @@
       <c r="E44" s="3">
         <v>0</v>
       </c>
-      <c r="F44" s="30">
+      <c r="F44" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6687,8 +4567,12 @@
       <c r="J44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L44" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>62</v>
       </c>
@@ -6704,7 +4588,7 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="30">
+      <c r="F45" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6720,8 +4604,12 @@
       <c r="J45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L45" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -6737,7 +4625,7 @@
       <c r="E46" s="3">
         <v>0</v>
       </c>
-      <c r="F46" s="30">
+      <c r="F46" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6753,8 +4641,12 @@
       <c r="J46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L46" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>66</v>
       </c>
@@ -6770,7 +4662,7 @@
       <c r="E47" s="3">
         <v>0</v>
       </c>
-      <c r="F47" s="30">
+      <c r="F47" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6786,8 +4678,12 @@
       <c r="J47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L47" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>68</v>
       </c>
@@ -6803,7 +4699,7 @@
       <c r="E48" s="3">
         <v>0</v>
       </c>
-      <c r="F48" s="30">
+      <c r="F48" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6819,8 +4715,12 @@
       <c r="J48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L48" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -6836,7 +4736,7 @@
       <c r="E49" s="3">
         <v>0</v>
       </c>
-      <c r="F49" s="30">
+      <c r="F49" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6852,258 +4752,290 @@
       <c r="J49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="45" t="s">
+      <c r="L49" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="45" t="s">
+      <c r="B50" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="D50" s="47">
-        <v>0</v>
-      </c>
-      <c r="E50" s="48">
+      <c r="C50" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" s="40">
+        <v>0</v>
+      </c>
+      <c r="E50" s="41">
         <v>160500</v>
       </c>
-      <c r="F50" s="49">
+      <c r="F50" s="42">
         <f t="shared" si="0"/>
         <v>25825</v>
       </c>
-      <c r="G50" s="48">
+      <c r="G50" s="41">
         <v>186325</v>
       </c>
-      <c r="H50" s="46">
-        <v>0</v>
-      </c>
-      <c r="I50" s="45">
-        <v>1</v>
-      </c>
-      <c r="J50" s="45">
-        <v>0</v>
-      </c>
-      <c r="K50" s="46" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="45" t="s">
+      <c r="H50" s="39">
+        <v>0</v>
+      </c>
+      <c r="I50" s="38">
+        <v>1</v>
+      </c>
+      <c r="J50" s="38">
+        <v>0</v>
+      </c>
+      <c r="K50" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="L50" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="B51" s="45" t="s">
+      <c r="B51" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C51" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="D51" s="47">
-        <v>0</v>
-      </c>
-      <c r="E51" s="48">
+      <c r="C51" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" s="40">
+        <v>0</v>
+      </c>
+      <c r="E51" s="41">
         <v>104293</v>
       </c>
-      <c r="F51" s="49">
-        <f t="shared" ref="F51:F55" si="5">G51-SUM(D51:E51)</f>
+      <c r="F51" s="42">
+        <f t="shared" ref="F51:F55" si="6">G51-SUM(D51:E51)</f>
         <v>45247</v>
       </c>
-      <c r="G51" s="48">
+      <c r="G51" s="41">
         <v>149540</v>
       </c>
-      <c r="H51" s="46">
-        <v>0</v>
-      </c>
-      <c r="I51" s="45">
-        <v>1</v>
-      </c>
-      <c r="J51" s="45">
-        <v>0</v>
-      </c>
-      <c r="K51" s="46" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="45" t="s">
+      <c r="H51" s="39">
+        <v>0</v>
+      </c>
+      <c r="I51" s="38">
+        <v>1</v>
+      </c>
+      <c r="J51" s="38">
+        <v>0</v>
+      </c>
+      <c r="K51" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="L51" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="B52" s="45" t="s">
+      <c r="B52" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C52" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="D52" s="47">
-        <v>0</v>
-      </c>
-      <c r="E52" s="48">
+      <c r="C52" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" s="40">
+        <v>0</v>
+      </c>
+      <c r="E52" s="41">
         <v>134125</v>
       </c>
-      <c r="F52" s="49">
-        <f t="shared" si="5"/>
+      <c r="F52" s="42">
+        <f t="shared" si="6"/>
         <v>30710</v>
       </c>
-      <c r="G52" s="48">
+      <c r="G52" s="41">
         <v>164835</v>
       </c>
-      <c r="H52" s="46">
-        <v>0</v>
-      </c>
-      <c r="I52" s="45">
-        <v>1</v>
-      </c>
-      <c r="J52" s="45">
-        <v>0</v>
-      </c>
-      <c r="K52" s="46" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="45" t="s">
+      <c r="H52" s="39">
+        <v>0</v>
+      </c>
+      <c r="I52" s="38">
+        <v>1</v>
+      </c>
+      <c r="J52" s="38">
+        <v>0</v>
+      </c>
+      <c r="K52" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="L52" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C53" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="D53" s="47">
-        <v>0</v>
-      </c>
-      <c r="E53" s="48">
+      <c r="C53" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D53" s="40">
+        <v>0</v>
+      </c>
+      <c r="E53" s="41">
         <v>170850</v>
       </c>
-      <c r="F53" s="49">
-        <f t="shared" si="5"/>
+      <c r="F53" s="42">
+        <f t="shared" si="6"/>
         <v>33918</v>
       </c>
-      <c r="G53" s="48">
+      <c r="G53" s="41">
         <v>204768</v>
       </c>
-      <c r="H53" s="46">
-        <v>0</v>
-      </c>
-      <c r="I53" s="45">
-        <v>1</v>
-      </c>
-      <c r="J53" s="45">
-        <v>0</v>
-      </c>
-      <c r="K53" s="46" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="45" t="s">
+      <c r="H53" s="39">
+        <v>0</v>
+      </c>
+      <c r="I53" s="38">
+        <v>1</v>
+      </c>
+      <c r="J53" s="38">
+        <v>0</v>
+      </c>
+      <c r="K53" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="L53" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="B54" s="45" t="s">
+      <c r="B54" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C54" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="D54" s="47">
-        <v>0</v>
-      </c>
-      <c r="E54" s="48">
+      <c r="C54" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D54" s="40">
+        <v>0</v>
+      </c>
+      <c r="E54" s="41">
         <v>172815</v>
       </c>
-      <c r="F54" s="49">
-        <f t="shared" si="5"/>
+      <c r="F54" s="42">
+        <f t="shared" si="6"/>
         <v>35029</v>
       </c>
-      <c r="G54" s="48">
+      <c r="G54" s="41">
         <v>207844</v>
       </c>
-      <c r="H54" s="46">
-        <v>0</v>
-      </c>
-      <c r="I54" s="45">
-        <v>1</v>
-      </c>
-      <c r="J54" s="45">
-        <v>0</v>
-      </c>
-      <c r="K54" s="46" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="45" t="s">
+      <c r="H54" s="39">
+        <v>0</v>
+      </c>
+      <c r="I54" s="38">
+        <v>1</v>
+      </c>
+      <c r="J54" s="38">
+        <v>0</v>
+      </c>
+      <c r="K54" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="L54" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="45" t="s">
+      <c r="B55" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="D55" s="47">
-        <v>0</v>
-      </c>
-      <c r="E55" s="48">
+      <c r="C55" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="D55" s="40">
+        <v>0</v>
+      </c>
+      <c r="E55" s="41">
         <v>159923</v>
       </c>
-      <c r="F55" s="49">
-        <f t="shared" si="5"/>
+      <c r="F55" s="42">
+        <f t="shared" si="6"/>
         <v>56349</v>
       </c>
-      <c r="G55" s="48">
+      <c r="G55" s="41">
         <v>216272</v>
       </c>
-      <c r="H55" s="46">
-        <v>0</v>
-      </c>
-      <c r="I55" s="45">
-        <v>1</v>
-      </c>
-      <c r="J55" s="45">
-        <v>0</v>
-      </c>
-      <c r="K55" s="46" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="50" t="s">
+      <c r="H55" s="39">
+        <v>0</v>
+      </c>
+      <c r="I55" s="38">
+        <v>1</v>
+      </c>
+      <c r="J55" s="38">
+        <v>0</v>
+      </c>
+      <c r="K55" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="L55" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B56" s="50" t="s">
+      <c r="B56" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C56" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="D56" s="52">
+      <c r="C56" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="D56" s="45">
         <v>187901</v>
       </c>
-      <c r="E56" s="53">
-        <v>0</v>
-      </c>
-      <c r="F56" s="54">
+      <c r="E56" s="46">
+        <v>0</v>
+      </c>
+      <c r="F56" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G56" s="52">
+      <c r="G56" s="45">
         <v>187901</v>
       </c>
-      <c r="H56" s="51">
-        <v>1</v>
-      </c>
-      <c r="I56" s="50">
-        <v>0</v>
-      </c>
-      <c r="J56" s="50">
-        <v>0</v>
-      </c>
-      <c r="K56" s="51"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H56" s="44">
+        <v>1</v>
+      </c>
+      <c r="I56" s="43">
+        <v>0</v>
+      </c>
+      <c r="J56" s="43">
+        <v>0</v>
+      </c>
+      <c r="K56" s="44"/>
+      <c r="L56" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>75</v>
       </c>
@@ -7119,7 +5051,7 @@
       <c r="E57" s="3">
         <v>0</v>
       </c>
-      <c r="F57" s="30">
+      <c r="F57" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7135,8 +5067,12 @@
       <c r="J57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L57" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -7152,7 +5088,7 @@
       <c r="E58" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="30">
+      <c r="F58" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7168,8 +5104,12 @@
       <c r="J58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L58" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>78</v>
       </c>
@@ -7185,7 +5125,7 @@
       <c r="E59" s="3">
         <v>0</v>
       </c>
-      <c r="F59" s="30">
+      <c r="F59" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7201,8 +5141,12 @@
       <c r="J59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L59" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>80</v>
       </c>
@@ -7218,7 +5162,7 @@
       <c r="E60" s="3">
         <v>0</v>
       </c>
-      <c r="F60" s="30">
+      <c r="F60" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7234,42 +5178,50 @@
       <c r="J60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="45" t="s">
+      <c r="L60" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="B61" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="D61" s="47">
-        <v>0</v>
-      </c>
-      <c r="E61" s="48">
+      <c r="B61" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="D61" s="40">
+        <v>0</v>
+      </c>
+      <c r="E61" s="41">
         <v>231472</v>
       </c>
-      <c r="F61" s="49">
+      <c r="F61" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G61" s="48">
+      <c r="G61" s="41">
         <v>231472</v>
       </c>
-      <c r="H61" s="46">
-        <v>0</v>
-      </c>
-      <c r="I61" s="45">
-        <v>1</v>
-      </c>
-      <c r="J61" s="45">
-        <v>0</v>
-      </c>
-      <c r="K61" s="46"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H61" s="39">
+        <v>0</v>
+      </c>
+      <c r="I61" s="38">
+        <v>1</v>
+      </c>
+      <c r="J61" s="38">
+        <v>0</v>
+      </c>
+      <c r="K61" s="39"/>
+      <c r="L61" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>83</v>
       </c>
@@ -7285,7 +5237,7 @@
       <c r="E62" s="3">
         <v>0</v>
       </c>
-      <c r="F62" s="30">
+      <c r="F62" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7301,8 +5253,12 @@
       <c r="J62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L62" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>85</v>
       </c>
@@ -7318,7 +5274,7 @@
       <c r="E63" s="3">
         <v>0</v>
       </c>
-      <c r="F63" s="30">
+      <c r="F63" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7334,8 +5290,12 @@
       <c r="J63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L63" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>87</v>
       </c>
@@ -7351,7 +5311,7 @@
       <c r="E64" s="3">
         <v>0</v>
       </c>
-      <c r="F64" s="30">
+      <c r="F64" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7367,8 +5327,12 @@
       <c r="J64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L64" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>89</v>
       </c>
@@ -7384,7 +5348,7 @@
       <c r="E65" s="3">
         <v>0</v>
       </c>
-      <c r="F65" s="30">
+      <c r="F65" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7400,144 +5364,164 @@
       <c r="J65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="45" t="s">
+      <c r="L65" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="B66" s="45" t="s">
+      <c r="B66" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="D66" s="47">
-        <v>0</v>
-      </c>
-      <c r="E66" s="48">
+      <c r="C66" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D66" s="40">
+        <v>0</v>
+      </c>
+      <c r="E66" s="41">
         <v>136256</v>
       </c>
-      <c r="F66" s="49">
+      <c r="F66" s="42">
         <f t="shared" si="0"/>
         <v>16745</v>
       </c>
-      <c r="G66" s="48">
+      <c r="G66" s="41">
         <v>153001</v>
       </c>
-      <c r="H66" s="46">
-        <v>0</v>
-      </c>
-      <c r="I66" s="45">
-        <v>1</v>
-      </c>
-      <c r="J66" s="45">
-        <v>0</v>
-      </c>
-      <c r="K66" s="46"/>
-    </row>
-    <row r="67" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="45" t="s">
+      <c r="H66" s="39">
+        <v>0</v>
+      </c>
+      <c r="I66" s="38">
+        <v>1</v>
+      </c>
+      <c r="J66" s="38">
+        <v>0</v>
+      </c>
+      <c r="K66" s="39"/>
+      <c r="L66" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="B67" s="45" t="s">
+      <c r="B67" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="D67" s="47">
-        <v>0</v>
-      </c>
-      <c r="E67" s="48">
+      <c r="C67" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="D67" s="40">
+        <v>0</v>
+      </c>
+      <c r="E67" s="41">
         <v>139038</v>
       </c>
-      <c r="F67" s="49">
-        <f t="shared" ref="F67:F69" si="6">G67-SUM(D67:E67)</f>
+      <c r="F67" s="42">
+        <f t="shared" ref="F67:F69" si="7">G67-SUM(D67:E67)</f>
         <v>32925</v>
       </c>
-      <c r="G67" s="48">
+      <c r="G67" s="41">
         <v>171963</v>
       </c>
-      <c r="H67" s="46">
-        <v>0</v>
-      </c>
-      <c r="I67" s="45">
-        <v>1</v>
-      </c>
-      <c r="J67" s="45">
-        <v>0</v>
-      </c>
-      <c r="K67" s="46"/>
-    </row>
-    <row r="68" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="45" t="s">
+      <c r="H67" s="39">
+        <v>0</v>
+      </c>
+      <c r="I67" s="38">
+        <v>1</v>
+      </c>
+      <c r="J67" s="38">
+        <v>0</v>
+      </c>
+      <c r="K67" s="39"/>
+      <c r="L67" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="B68" s="45" t="s">
+      <c r="B68" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="D68" s="47">
-        <v>0</v>
-      </c>
-      <c r="E68" s="48">
+      <c r="C68" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D68" s="40">
+        <v>0</v>
+      </c>
+      <c r="E68" s="41">
         <v>117494</v>
       </c>
-      <c r="F68" s="49">
-        <f t="shared" si="6"/>
+      <c r="F68" s="42">
+        <f t="shared" si="7"/>
         <v>21732</v>
       </c>
-      <c r="G68" s="48">
+      <c r="G68" s="41">
         <v>139226</v>
       </c>
-      <c r="H68" s="46">
-        <v>0</v>
-      </c>
-      <c r="I68" s="45">
-        <v>1</v>
-      </c>
-      <c r="J68" s="45">
-        <v>0</v>
-      </c>
-      <c r="K68" s="46"/>
-    </row>
-    <row r="69" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="45" t="s">
+      <c r="H68" s="39">
+        <v>0</v>
+      </c>
+      <c r="I68" s="38">
+        <v>1</v>
+      </c>
+      <c r="J68" s="38">
+        <v>0</v>
+      </c>
+      <c r="K68" s="39"/>
+      <c r="L68" s="38" t="str">
+        <f t="shared" ref="L68:L77" si="8">IF(AND(SUM(H68:J68)=0,G68&gt;0), "BAD", "OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="B69" s="45" t="s">
+      <c r="B69" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C69" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="D69" s="47">
-        <v>0</v>
-      </c>
-      <c r="E69" s="48">
+      <c r="C69" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="D69" s="40">
+        <v>0</v>
+      </c>
+      <c r="E69" s="41">
         <v>166784</v>
       </c>
-      <c r="F69" s="49">
-        <f t="shared" si="6"/>
+      <c r="F69" s="42">
+        <f t="shared" si="7"/>
         <v>16390</v>
       </c>
-      <c r="G69" s="48">
+      <c r="G69" s="41">
         <v>183174</v>
       </c>
-      <c r="H69" s="46">
-        <v>0</v>
-      </c>
-      <c r="I69" s="45">
-        <v>1</v>
-      </c>
-      <c r="J69" s="45">
-        <v>0</v>
-      </c>
-      <c r="K69" s="46"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H69" s="39">
+        <v>0</v>
+      </c>
+      <c r="I69" s="38">
+        <v>1</v>
+      </c>
+      <c r="J69" s="38">
+        <v>0</v>
+      </c>
+      <c r="K69" s="39"/>
+      <c r="L69" s="38" t="str">
+        <f t="shared" si="8"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>92</v>
       </c>
@@ -7553,7 +5537,7 @@
       <c r="E70" s="3">
         <v>0</v>
       </c>
-      <c r="F70" s="30">
+      <c r="F70" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7569,8 +5553,12 @@
       <c r="J70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L70" t="str">
+        <f t="shared" si="8"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>94</v>
       </c>
@@ -7586,7 +5574,7 @@
       <c r="E71" s="3">
         <v>0</v>
       </c>
-      <c r="F71" s="30">
+      <c r="F71" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7602,110 +5590,126 @@
       <c r="J71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="45" t="s">
+      <c r="L71" t="str">
+        <f t="shared" si="8"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="B72" s="45" t="s">
+      <c r="B72" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C72" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="D72" s="47">
-        <v>0</v>
-      </c>
-      <c r="E72" s="48">
+      <c r="C72" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="D72" s="40">
+        <v>0</v>
+      </c>
+      <c r="E72" s="41">
         <v>198615</v>
       </c>
-      <c r="F72" s="49">
+      <c r="F72" s="42">
         <f t="shared" si="0"/>
         <v>19107</v>
       </c>
-      <c r="G72" s="48">
+      <c r="G72" s="41">
         <v>217722</v>
       </c>
-      <c r="H72" s="46">
-        <v>0</v>
-      </c>
-      <c r="I72" s="45">
-        <v>1</v>
-      </c>
-      <c r="J72" s="45">
-        <v>0</v>
-      </c>
-      <c r="K72" s="46"/>
-    </row>
-    <row r="73" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="50" t="s">
+      <c r="H72" s="39">
+        <v>0</v>
+      </c>
+      <c r="I72" s="38">
+        <v>1</v>
+      </c>
+      <c r="J72" s="38">
+        <v>0</v>
+      </c>
+      <c r="K72" s="39"/>
+      <c r="L72" s="38" t="str">
+        <f t="shared" si="8"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="B73" s="50" t="s">
+      <c r="B73" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="C73" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="D73" s="52">
-        <v>0</v>
-      </c>
-      <c r="E73" s="53">
+      <c r="C73" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D73" s="45">
+        <v>0</v>
+      </c>
+      <c r="E73" s="46">
         <v>210187</v>
       </c>
-      <c r="F73" s="54">
+      <c r="F73" s="47">
         <f t="shared" si="0"/>
         <v>84646</v>
       </c>
-      <c r="G73" s="53">
+      <c r="G73" s="46">
         <v>294833</v>
       </c>
-      <c r="H73" s="51">
-        <v>0</v>
-      </c>
-      <c r="I73" s="50">
-        <v>1</v>
-      </c>
-      <c r="J73" s="50">
-        <v>0</v>
-      </c>
-      <c r="K73" s="51"/>
-    </row>
-    <row r="74" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="50" t="s">
+      <c r="H73" s="44">
+        <v>0</v>
+      </c>
+      <c r="I73" s="43">
+        <v>1</v>
+      </c>
+      <c r="J73" s="43">
+        <v>0</v>
+      </c>
+      <c r="K73" s="44"/>
+      <c r="L73" s="43" t="str">
+        <f t="shared" si="8"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="B74" s="50" t="s">
+      <c r="B74" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="C74" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="D74" s="52">
-        <v>0</v>
-      </c>
-      <c r="E74" s="53">
+      <c r="C74" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="D74" s="45">
+        <v>0</v>
+      </c>
+      <c r="E74" s="46">
         <v>240567</v>
       </c>
-      <c r="F74" s="54">
-        <f t="shared" ref="F74" si="7">G74-SUM(D74:E74)</f>
-        <v>0</v>
-      </c>
-      <c r="G74" s="53">
+      <c r="F74" s="47">
+        <f t="shared" ref="F74" si="9">G74-SUM(D74:E74)</f>
+        <v>0</v>
+      </c>
+      <c r="G74" s="46">
         <v>240567</v>
       </c>
-      <c r="H74" s="51">
-        <v>0</v>
-      </c>
-      <c r="I74" s="50">
-        <v>1</v>
-      </c>
-      <c r="J74" s="50">
-        <v>0</v>
-      </c>
-      <c r="K74" s="51"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H74" s="44">
+        <v>0</v>
+      </c>
+      <c r="I74" s="43">
+        <v>1</v>
+      </c>
+      <c r="J74" s="43">
+        <v>0</v>
+      </c>
+      <c r="K74" s="44"/>
+      <c r="L74" s="43" t="str">
+        <f t="shared" si="8"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>99</v>
       </c>
@@ -7721,7 +5725,7 @@
       <c r="E75" s="3">
         <v>0</v>
       </c>
-      <c r="F75" s="30">
+      <c r="F75" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7737,42 +5741,50 @@
       <c r="J75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="45" t="s">
+      <c r="L75" t="str">
+        <f t="shared" si="8"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="B76" s="45" t="s">
+      <c r="B76" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C76" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="D76" s="47">
-        <v>0</v>
-      </c>
-      <c r="E76" s="48">
+      <c r="C76" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="D76" s="40">
+        <v>0</v>
+      </c>
+      <c r="E76" s="41">
         <v>309116</v>
       </c>
-      <c r="F76" s="49">
+      <c r="F76" s="42">
         <f t="shared" si="0"/>
         <v>8179</v>
       </c>
-      <c r="G76" s="48">
+      <c r="G76" s="41">
         <v>317295</v>
       </c>
-      <c r="H76" s="46">
-        <v>0</v>
-      </c>
-      <c r="I76" s="45">
-        <v>1</v>
-      </c>
-      <c r="J76" s="45">
-        <v>0</v>
-      </c>
-      <c r="K76" s="46"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H76" s="39">
+        <v>0</v>
+      </c>
+      <c r="I76" s="38">
+        <v>1</v>
+      </c>
+      <c r="J76" s="38">
+        <v>0</v>
+      </c>
+      <c r="K76" s="39"/>
+      <c r="L76" s="38" t="str">
+        <f t="shared" si="8"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>102</v>
       </c>
@@ -7788,7 +5800,7 @@
       <c r="E77" s="3">
         <v>0</v>
       </c>
-      <c r="F77" s="30">
+      <c r="F77" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7804,48 +5816,52 @@
       <c r="J77">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L77" t="str">
+        <f t="shared" si="8"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="17"/>
       <c r="D79" s="15">
-        <f t="shared" ref="D79:J79" si="8">SUM(D3:D77)</f>
+        <f t="shared" ref="D79:J79" si="10">SUM(D3:D77)</f>
         <v>556838</v>
       </c>
       <c r="E79" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6277554</v>
       </c>
-      <c r="F79" s="31">
-        <f t="shared" si="8"/>
+      <c r="F79" s="27">
+        <f t="shared" si="10"/>
         <v>1031727</v>
       </c>
       <c r="G79" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7866119</v>
       </c>
       <c r="H79" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="I79" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>38</v>
       </c>
       <c r="J79" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K79" s="17"/>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C81" s="22"/>
+      <c r="C81" s="18"/>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C82" s="22"/>
+      <c r="C82" s="18"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -7855,917 +5871,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A3:E56"/>
-  <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:E53"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3">
-        <v>189163</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3">
-        <v>132051</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1773613</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3">
-        <v>202824</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="3">
-        <v>474122</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="3">
-        <v>235982</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1173948</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3">
-        <v>196299</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="3">
-        <v>221379</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="3">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="3">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="3">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="3">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="3">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="3">
-        <v>1129584</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="3">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="3">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="3">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" s="3">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="3">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="3">
-        <v>231472</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="3">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="3">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" s="3">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="3">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="3">
-        <v>647364</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="3">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" t="s">
-        <v>95</v>
-      </c>
-      <c r="C48" s="3">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>96</v>
-      </c>
-      <c r="B49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="3">
-        <v>217722</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>97</v>
-      </c>
-      <c r="B50" t="s">
-        <v>98</v>
-      </c>
-      <c r="C50" s="3">
-        <v>535400</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C51" s="3">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>101</v>
-      </c>
-      <c r="B52" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="3">
-        <v>317295</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>102</v>
-      </c>
-      <c r="B53" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" s="3">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>118</v>
-      </c>
-      <c r="C54" s="3">
-        <v>7678218</v>
-      </c>
-      <c r="D54">
-        <v>3</v>
-      </c>
-      <c r="E54">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C55"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C56"/>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FB3DB5-252A-4447-8774-E76BEFB3E707}">
   <dimension ref="A1:J51"/>
   <sheetViews>
@@ -8780,34 +5885,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -10415,49 +7520,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E007D7-4058-194A-8864-F136912F1145}">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L20" sqref="L20"/>
+      <selection pane="bottomRight" activeCell="A39" sqref="A39:J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -10468,7 +7573,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -10532,7 +7637,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -10596,7 +7701,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -10628,7 +7733,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -10660,7 +7765,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D8">
         <v>170785</v>
@@ -10692,7 +7797,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -10724,7 +7829,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -10756,7 +7861,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -10788,7 +7893,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -10820,7 +7925,7 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -10852,7 +7957,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -10980,7 +8085,7 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -11000,7 +8105,7 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -11020,7 +8125,7 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -11052,7 +8157,7 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -11072,7 +8177,7 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -11092,7 +8197,7 @@
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -11124,7 +8229,7 @@
         <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D24">
         <v>198152</v>
@@ -11380,7 +8485,7 @@
         <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -11476,7 +8581,7 @@
         <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -11508,7 +8613,7 @@
         <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -11540,7 +8645,7 @@
         <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -11572,7 +8677,7 @@
         <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -11604,7 +8709,7 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -11668,7 +8773,7 @@
         <v>57</v>
       </c>
       <c r="C41" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -11924,7 +9029,7 @@
         <v>73</v>
       </c>
       <c r="C49" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -11956,7 +9061,7 @@
         <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -11988,7 +9093,7 @@
         <v>73</v>
       </c>
       <c r="C51" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -12020,7 +9125,7 @@
         <v>73</v>
       </c>
       <c r="C52" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -12052,7 +9157,7 @@
         <v>73</v>
       </c>
       <c r="C53" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -12084,7 +9189,7 @@
         <v>73</v>
       </c>
       <c r="C54" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -12116,7 +9221,7 @@
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D55">
         <v>187901</v>
@@ -12276,7 +9381,7 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -12436,7 +9541,7 @@
         <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -12468,7 +9573,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -12500,7 +9605,7 @@
         <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -12532,7 +9637,7 @@
         <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -12628,7 +9733,7 @@
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -12660,7 +9765,7 @@
         <v>98</v>
       </c>
       <c r="C72" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -12692,7 +9797,7 @@
         <v>98</v>
       </c>
       <c r="C73" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -12756,7 +9861,7 @@
         <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D75">
         <v>0</v>
